--- a/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK49"/>
+  <dimension ref="A1:BK50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT4" t="n">
         <v>0.33</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT20" t="n">
         <v>0</v>
@@ -8411,7 +8411,7 @@
         <v>1.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT39" t="n">
         <v>2</v>
@@ -10496,6 +10496,209 @@
       </c>
       <c r="BK49" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>5231198</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45037.875</v>
+      </c>
+      <c r="F50" t="n">
+        <v>7</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Guayaquil City FC</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Delfin SC</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="n">
+        <v>2</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="n">
+        <v>3</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>['54', '69']</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>7</v>
+      </c>
+      <c r="S50" t="n">
+        <v>11</v>
+      </c>
+      <c r="T50" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U50" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X50" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK50"/>
+  <dimension ref="A1:BK53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>3</v>
       </c>
       <c r="AT2" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT5" t="n">
         <v>1</v>
@@ -1715,7 +1715,7 @@
         <v>2</v>
       </c>
       <c r="AT6" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT18" t="n">
         <v>0.67</v>
@@ -4963,7 +4963,7 @@
         <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU22" t="n">
         <v>1.77</v>
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU23" t="n">
         <v>1.24</v>
@@ -5369,7 +5369,7 @@
         <v>2</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU24" t="n">
         <v>1.81</v>
@@ -7599,10 +7599,10 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU35" t="n">
         <v>1.5</v>
@@ -7805,7 +7805,7 @@
         <v>1</v>
       </c>
       <c r="AT36" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU36" t="n">
         <v>1.3</v>
@@ -8414,7 +8414,7 @@
         <v>1.75</v>
       </c>
       <c r="AT39" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU39" t="n">
         <v>1.48</v>
@@ -10698,6 +10698,615 @@
         <v>7</v>
       </c>
       <c r="BK50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>5231195</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45038.625</v>
+      </c>
+      <c r="F51" t="n">
+        <v>7</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Gualaceo SC</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>CD Universidad Católica</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>9</v>
+      </c>
+      <c r="S51" t="n">
+        <v>13</v>
+      </c>
+      <c r="T51" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="U51" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V51" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X51" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>5231197</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45038.72916666666</v>
+      </c>
+      <c r="F52" t="n">
+        <v>7</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>CSD Independiente del Valle</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Técnico Universitario</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>7</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>11</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U52" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V52" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X52" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>5231194</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45038.83333333334</v>
+      </c>
+      <c r="F53" t="n">
+        <v>7</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Orense SC</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>LDU Quito</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="n">
+        <v>2</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="n">
+        <v>3</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>['18', '83']</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>6</v>
+      </c>
+      <c r="S53" t="n">
+        <v>11</v>
+      </c>
+      <c r="T53" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U53" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V53" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X53" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK53" t="n">
         <v>8</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK53"/>
+  <dimension ref="A1:BK57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>1.75</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT7" t="n">
         <v>2</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT11" t="n">
         <v>0.25</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT14" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>3</v>
       </c>
       <c r="AT16" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT22" t="n">
         <v>0.75</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT23" t="n">
         <v>1.5</v>
@@ -5572,7 +5572,7 @@
         <v>3</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU25" t="n">
         <v>1.84</v>
@@ -6587,7 +6587,7 @@
         <v>2.5</v>
       </c>
       <c r="AT30" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU30" t="n">
         <v>0.88</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT36" t="n">
         <v>0.75</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT38" t="n">
         <v>0</v>
@@ -8614,10 +8614,10 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT40" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU40" t="n">
         <v>1.59</v>
@@ -8820,7 +8820,7 @@
         <v>3</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU41" t="n">
         <v>1.21</v>
@@ -11308,6 +11308,818 @@
       </c>
       <c r="BK53" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>5231200</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45039.625</v>
+      </c>
+      <c r="F54" t="n">
+        <v>7</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>CD El Nacional</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>2</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2</v>
+      </c>
+      <c r="K54" t="n">
+        <v>4</v>
+      </c>
+      <c r="L54" t="n">
+        <v>4</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="n">
+        <v>6</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>['35', '43', '73', '89']</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>['8', '30']</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>7</v>
+      </c>
+      <c r="S54" t="n">
+        <v>10</v>
+      </c>
+      <c r="T54" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U54" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X54" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>5231199</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45039.72916666666</v>
+      </c>
+      <c r="F55" t="n">
+        <v>7</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Deportivo Cuenca</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="n">
+        <v>2</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="n">
+        <v>3</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>['52', '79']</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>8</v>
+      </c>
+      <c r="R55" t="n">
+        <v>6</v>
+      </c>
+      <c r="S55" t="n">
+        <v>14</v>
+      </c>
+      <c r="T55" t="n">
+        <v>2</v>
+      </c>
+      <c r="U55" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V55" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X55" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>5231193</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45039.83333333334</v>
+      </c>
+      <c r="F56" t="n">
+        <v>7</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Mushuc Runa SC</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>CS Emelec</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>6</v>
+      </c>
+      <c r="S56" t="n">
+        <v>10</v>
+      </c>
+      <c r="T56" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U56" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X56" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>5231196</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45040.875</v>
+      </c>
+      <c r="F57" t="n">
+        <v>7</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>SD Aucas</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Cumbayá</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="n">
+        <v>2</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="n">
+        <v>3</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>['6', '55']</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>6</v>
+      </c>
+      <c r="S57" t="n">
+        <v>9</v>
+      </c>
+      <c r="T57" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U57" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X57" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BA57" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK57"/>
+  <dimension ref="A1:BK59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT7" t="n">
         <v>2</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT8" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>3</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT22" t="n">
         <v>0.75</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT24" t="n">
         <v>0.25</v>
@@ -5775,7 +5775,7 @@
         <v>1.33</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU26" t="n">
         <v>1.41</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT40" t="n">
         <v>0.25</v>
@@ -9023,7 +9023,7 @@
         <v>1.67</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU42" t="n">
         <v>1.13</v>
@@ -10238,7 +10238,7 @@
         <v>1.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT48" t="n">
         <v>2</v>
@@ -12065,7 +12065,7 @@
         <v>0.33</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT57" t="n">
         <v>0.25</v>
@@ -12120,6 +12120,412 @@
       </c>
       <c r="BK57" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>5231202</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45044.8125</v>
+      </c>
+      <c r="F58" t="n">
+        <v>8</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>SD Aucas</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Guayaquil City FC</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>['90+10']</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>11</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1</v>
+      </c>
+      <c r="S58" t="n">
+        <v>12</v>
+      </c>
+      <c r="T58" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="U58" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V58" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X58" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>5231204</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45044.91666666666</v>
+      </c>
+      <c r="F59" t="n">
+        <v>8</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>CS Emelec</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>CSD Independiente del Valle</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>2</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="n">
+        <v>5</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>['47', '90+7']</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>['60', '86', '90']</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>7</v>
+      </c>
+      <c r="S59" t="n">
+        <v>11</v>
+      </c>
+      <c r="T59" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U59" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X59" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK59"/>
+  <dimension ref="A1:BK62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT6" t="n">
         <v>0.75</v>
@@ -3339,7 +3339,7 @@
         <v>2.33</v>
       </c>
       <c r="AT14" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT15" t="n">
         <v>0</v>
@@ -5166,7 +5166,7 @@
         <v>1.5</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU23" t="n">
         <v>1.24</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AT25" t="n">
         <v>0.25</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT26" t="n">
         <v>1.75</v>
@@ -5978,7 +5978,7 @@
         <v>1.33</v>
       </c>
       <c r="AT27" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AU27" t="n">
         <v>2.14</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT31" t="n">
         <v>0</v>
@@ -8414,7 +8414,7 @@
         <v>1.75</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU39" t="n">
         <v>1.48</v>
@@ -9223,7 +9223,7 @@
         <v>1</v>
       </c>
       <c r="AS43" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT43" t="n">
         <v>1.67</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AT44" t="n">
         <v>0</v>
@@ -9835,7 +9835,7 @@
         <v>3</v>
       </c>
       <c r="AT46" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AU46" t="n">
         <v>0.75</v>
@@ -10441,7 +10441,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT49" t="n">
         <v>0.67</v>
@@ -11256,7 +11256,7 @@
         <v>3</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU53" t="n">
         <v>1.49</v>
@@ -12526,6 +12526,615 @@
       </c>
       <c r="BK59" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>5231208</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45045.625</v>
+      </c>
+      <c r="F60" t="n">
+        <v>8</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Deportivo Cuenca</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Gualaceo SC</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="n">
+        <v>3</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>['1', '65']</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>8</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>12</v>
+      </c>
+      <c r="T60" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U60" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X60" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>5231203</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45045.72916666666</v>
+      </c>
+      <c r="F61" t="n">
+        <v>8</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>CD Universidad Católica</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>LDU Quito</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>3</v>
+      </c>
+      <c r="K61" t="n">
+        <v>3</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="n">
+        <v>4</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>['12', '19', '26', '56']</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>7</v>
+      </c>
+      <c r="S61" t="n">
+        <v>10</v>
+      </c>
+      <c r="T61" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U61" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V61" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X61" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>5231201</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45045.83333333334</v>
+      </c>
+      <c r="F62" t="n">
+        <v>8</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Técnico Universitario</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="n">
+        <v>2</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="n">
+        <v>4</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>['18', '90+2']</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>['59', '90+7']</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>11</v>
+      </c>
+      <c r="S62" t="n">
+        <v>15</v>
+      </c>
+      <c r="T62" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U62" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V62" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X62" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK62"/>
+  <dimension ref="A1:BK65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>3</v>
       </c>
       <c r="AT3" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>2.4</v>
       </c>
       <c r="AT7" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT10" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT17" t="n">
         <v>1.75</v>
@@ -4151,7 +4151,7 @@
         <v>2.5</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AU18" t="n">
         <v>1.52</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT19" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>1.75</v>
       </c>
       <c r="AT20" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AU20" t="n">
         <v>1.56</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT28" t="n">
         <v>1.67</v>
@@ -6384,7 +6384,7 @@
         <v>3</v>
       </c>
       <c r="AT29" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AU29" t="n">
         <v>1.35</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT30" t="n">
         <v>0.25</v>
@@ -6990,10 +6990,10 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT32" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU32" t="n">
         <v>0.43</v>
@@ -9020,7 +9020,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT42" t="n">
         <v>1.75</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT46" t="n">
         <v>0.75</v>
@@ -10035,10 +10035,10 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT47" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AU47" t="n">
         <v>0.97</v>
@@ -10241,7 +10241,7 @@
         <v>1.5</v>
       </c>
       <c r="AT48" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU48" t="n">
         <v>1.47</v>
@@ -10444,7 +10444,7 @@
         <v>1</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AU49" t="n">
         <v>1.13</v>
@@ -13135,6 +13135,615 @@
       </c>
       <c r="BK62" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>5231206</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45046.625</v>
+      </c>
+      <c r="F63" t="n">
+        <v>8</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Cumbayá</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Mushuc Runa SC</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="n">
+        <v>2</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>7</v>
+      </c>
+      <c r="T63" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U63" t="n">
+        <v>2</v>
+      </c>
+      <c r="V63" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X63" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>5231207</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45046.72916666666</v>
+      </c>
+      <c r="F64" t="n">
+        <v>8</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Orense SC</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1</v>
+      </c>
+      <c r="S64" t="n">
+        <v>6</v>
+      </c>
+      <c r="T64" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U64" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>3</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X64" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>5231205</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45046.83333333334</v>
+      </c>
+      <c r="F65" t="n">
+        <v>8</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Delfin SC</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>CD El Nacional</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="n">
+        <v>2</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>2</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>['27', '68']</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>10</v>
+      </c>
+      <c r="S65" t="n">
+        <v>13</v>
+      </c>
+      <c r="T65" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U65" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V65" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK65"/>
+  <dimension ref="A1:BK66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2730,7 +2730,7 @@
         <v>1.5</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>1.5</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU24" t="n">
         <v>1.81</v>
@@ -7602,7 +7602,7 @@
         <v>2.5</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU35" t="n">
         <v>1.5</v>
@@ -11053,7 +11053,7 @@
         <v>3</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU52" t="n">
         <v>1.9</v>
@@ -13744,6 +13744,209 @@
       </c>
       <c r="BK65" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>5231213</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45051.875</v>
+      </c>
+      <c r="F66" t="n">
+        <v>9</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Orense SC</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Técnico Universitario</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" t="n">
+        <v>2</v>
+      </c>
+      <c r="L66" t="n">
+        <v>2</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="n">
+        <v>3</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>['9', '84']</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>7</v>
+      </c>
+      <c r="T66" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U66" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>4</v>
+      </c>
+      <c r="W66" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X66" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK66"/>
+  <dimension ref="A1:BK69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT4" t="n">
         <v>0.25</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT5" t="n">
         <v>1</v>
@@ -2121,7 +2121,7 @@
         <v>1.5</v>
       </c>
       <c r="AT8" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT15" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>2.5</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT18" t="n">
         <v>0.75</v>
@@ -4354,7 +4354,7 @@
         <v>2.6</v>
       </c>
       <c r="AT19" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AU19" t="n">
         <v>0.88</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT20" t="n">
         <v>0.2</v>
@@ -5772,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU26" t="n">
         <v>1.41</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT35" t="n">
         <v>0.2</v>
@@ -8211,7 +8211,7 @@
         <v>2.33</v>
       </c>
       <c r="AT38" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AU38" t="n">
         <v>1.52</v>
@@ -8411,7 +8411,7 @@
         <v>1.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT39" t="n">
         <v>1.8</v>
@@ -9023,7 +9023,7 @@
         <v>1.5</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU42" t="n">
         <v>1.13</v>
@@ -10441,7 +10441,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT49" t="n">
         <v>0.75</v>
@@ -10644,7 +10644,7 @@
         <v>0</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT50" t="n">
         <v>0</v>
@@ -10847,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT51" t="n">
         <v>0.75</v>
@@ -11459,7 +11459,7 @@
         <v>1.5</v>
       </c>
       <c r="AT54" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AU54" t="n">
         <v>1.38</v>
@@ -12474,7 +12474,7 @@
         <v>1.5</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU59" t="n">
         <v>1.36</v>
@@ -12877,7 +12877,7 @@
         <v>1.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT61" t="n">
         <v>1.8</v>
@@ -13947,6 +13947,615 @@
       </c>
       <c r="BK66" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>5231215</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45052.625</v>
+      </c>
+      <c r="F67" t="n">
+        <v>9</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>CD Universidad Católica</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Deportivo Cuenca</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>1</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2</v>
+      </c>
+      <c r="S67" t="n">
+        <v>7</v>
+      </c>
+      <c r="T67" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U67" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V67" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="W67" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X67" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>5231216</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45052.72916666666</v>
+      </c>
+      <c r="F68" t="n">
+        <v>9</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Guayaquil City FC</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="n">
+        <v>2</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U68" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V68" t="n">
+        <v>4</v>
+      </c>
+      <c r="W68" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X68" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>5231211</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45052.83333333334</v>
+      </c>
+      <c r="F69" t="n">
+        <v>9</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Gualaceo SC</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>CSD Independiente del Valle</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2</v>
+      </c>
+      <c r="N69" t="n">
+        <v>3</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>['60', '70']</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U69" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V69" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X69" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK69"/>
+  <dimension ref="A1:BK73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1918,7 +1918,7 @@
         <v>2.4</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>3</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT14" t="n">
         <v>0.75</v>
@@ -3745,7 +3745,7 @@
         <v>3</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT17" t="n">
         <v>2</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT27" t="n">
         <v>0.75</v>
@@ -6181,7 +6181,7 @@
         <v>1.5</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU28" t="n">
         <v>1.23</v>
@@ -6587,7 +6587,7 @@
         <v>2.6</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU30" t="n">
         <v>0.88</v>
@@ -6990,10 +6990,10 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU32" t="n">
         <v>0.43</v>
@@ -8008,7 +8008,7 @@
         <v>3</v>
       </c>
       <c r="AT37" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU37" t="n">
         <v>1.91</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT38" t="n">
         <v>0.2</v>
@@ -8617,7 +8617,7 @@
         <v>2.4</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU40" t="n">
         <v>1.59</v>
@@ -9226,7 +9226,7 @@
         <v>1.75</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU43" t="n">
         <v>1.59</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT45" t="n">
         <v>1</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT46" t="n">
         <v>0.75</v>
@@ -10241,7 +10241,7 @@
         <v>1.5</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU48" t="n">
         <v>1.47</v>
@@ -10647,7 +10647,7 @@
         <v>1.6</v>
       </c>
       <c r="AT50" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU50" t="n">
         <v>1.25</v>
@@ -11862,10 +11862,10 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU56" t="n">
         <v>1.22</v>
@@ -13283,7 +13283,7 @@
         <v>0</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT63" t="n">
         <v>0.2</v>
@@ -13692,7 +13692,7 @@
         <v>2.6</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU65" t="n">
         <v>1.1</v>
@@ -14556,6 +14556,818 @@
       </c>
       <c r="BK69" t="n">
         <v>19</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>5231212</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45053.625</v>
+      </c>
+      <c r="F70" t="n">
+        <v>9</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Mushuc Runa SC</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>CD El Nacional</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>7</v>
+      </c>
+      <c r="R70" t="n">
+        <v>6</v>
+      </c>
+      <c r="S70" t="n">
+        <v>13</v>
+      </c>
+      <c r="T70" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U70" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W70" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X70" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>5231209</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45053.72916666666</v>
+      </c>
+      <c r="F71" t="n">
+        <v>9</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Cumbayá</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>CS Emelec</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>6</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>9</v>
+      </c>
+      <c r="T71" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U71" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V71" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W71" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X71" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>5231210</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45053.83333333334</v>
+      </c>
+      <c r="F72" t="n">
+        <v>9</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>SD Aucas</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>2</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>2</v>
+      </c>
+      <c r="L72" t="n">
+        <v>5</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="n">
+        <v>6</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>['32', '45', '52', '58', '79']</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U72" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V72" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W72" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X72" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>5231214</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45054.875</v>
+      </c>
+      <c r="F73" t="n">
+        <v>9</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>LDU Quito</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Delfin SC</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="n">
+        <v>2</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>11</v>
+      </c>
+      <c r="R73" t="n">
+        <v>2</v>
+      </c>
+      <c r="S73" t="n">
+        <v>13</v>
+      </c>
+      <c r="T73" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U73" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>7</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X73" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>25</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK73"/>
+  <dimension ref="A1:BK74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT2" t="n">
         <v>1.8</v>
@@ -1106,7 +1106,7 @@
         <v>3</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>1.6</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU20" t="n">
         <v>1.56</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT25" t="n">
         <v>0.25</v>
@@ -6384,7 +6384,7 @@
         <v>3</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU29" t="n">
         <v>1.35</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT44" t="n">
         <v>0</v>
@@ -10038,7 +10038,7 @@
         <v>2.6</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU47" t="n">
         <v>0.97</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT60" t="n">
         <v>0.75</v>
@@ -13286,7 +13286,7 @@
         <v>2.2</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU63" t="n">
         <v>0.89</v>
@@ -15368,6 +15368,209 @@
       </c>
       <c r="BK73" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>5231222</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45058.875</v>
+      </c>
+      <c r="F74" t="n">
+        <v>10</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Deportivo Cuenca</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Mushuc Runa SC</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="n">
+        <v>3</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>3</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>['6', '75', '86']</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>2</v>
+      </c>
+      <c r="S74" t="n">
+        <v>6</v>
+      </c>
+      <c r="T74" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U74" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W74" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X74" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK74"/>
+  <dimension ref="A1:BK81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.4</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1.6</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT7" t="n">
         <v>1.8</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT8" t="n">
         <v>0.2</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT11" t="n">
         <v>0.2</v>
@@ -3339,7 +3339,7 @@
         <v>1.75</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>2</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU18" t="n">
         <v>1.52</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT19" t="n">
         <v>0.2</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU22" t="n">
         <v>1.77</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AU23" t="n">
         <v>1.24</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT24" t="n">
         <v>0.2</v>
@@ -5572,7 +5572,7 @@
         <v>2.4</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU25" t="n">
         <v>1.84</v>
@@ -5978,7 +5978,7 @@
         <v>1.25</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU27" t="n">
         <v>2.14</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT28" t="n">
         <v>1.25</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT30" t="n">
         <v>0.4</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT31" t="n">
         <v>0</v>
@@ -7802,10 +7802,10 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU36" t="n">
         <v>1.3</v>
@@ -8414,7 +8414,7 @@
         <v>1.6</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AU39" t="n">
         <v>1.48</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT40" t="n">
         <v>0.4</v>
@@ -8820,7 +8820,7 @@
         <v>3</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU41" t="n">
         <v>1.21</v>
@@ -9020,7 +9020,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT42" t="n">
         <v>2</v>
@@ -9223,7 +9223,7 @@
         <v>1</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT43" t="n">
         <v>1.25</v>
@@ -9835,7 +9835,7 @@
         <v>2.2</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU46" t="n">
         <v>0.75</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT47" t="n">
         <v>0.17</v>
@@ -10238,7 +10238,7 @@
         <v>1.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT48" t="n">
         <v>1.8</v>
@@ -10444,7 +10444,7 @@
         <v>1.4</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU49" t="n">
         <v>1.13</v>
@@ -10850,7 +10850,7 @@
         <v>2</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU51" t="n">
         <v>1.42</v>
@@ -11256,7 +11256,7 @@
         <v>3</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AU53" t="n">
         <v>1.49</v>
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT54" t="n">
         <v>0.2</v>
@@ -12065,10 +12065,10 @@
         <v>0.33</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU57" t="n">
         <v>1.56</v>
@@ -12268,7 +12268,7 @@
         <v>0</v>
       </c>
       <c r="AS58" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT58" t="n">
         <v>0</v>
@@ -12471,7 +12471,7 @@
         <v>1.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT59" t="n">
         <v>2</v>
@@ -12677,7 +12677,7 @@
         <v>2.4</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU60" t="n">
         <v>1.73</v>
@@ -12880,7 +12880,7 @@
         <v>1.4</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AU61" t="n">
         <v>1.29</v>
@@ -13080,7 +13080,7 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT62" t="n">
         <v>1</v>
@@ -13486,10 +13486,10 @@
         <v>0.67</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU64" t="n">
         <v>0.93</v>
@@ -13689,7 +13689,7 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT65" t="n">
         <v>1.8</v>
@@ -15571,6 +15571,1427 @@
       </c>
       <c r="BK74" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>5231223</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45059.625</v>
+      </c>
+      <c r="F75" t="n">
+        <v>10</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>CD El Nacional</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Orense SC</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>3</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>3</v>
+      </c>
+      <c r="L75" t="n">
+        <v>3</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="n">
+        <v>4</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>['5', '17', '36']</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>7</v>
+      </c>
+      <c r="S75" t="n">
+        <v>12</v>
+      </c>
+      <c r="T75" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U75" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V75" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X75" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>5231224</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45059.72916666666</v>
+      </c>
+      <c r="F76" t="n">
+        <v>10</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>SD Aucas</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Gualaceo SC</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>1</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>10</v>
+      </c>
+      <c r="T76" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U76" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V76" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X76" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>5231217</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45059.83333333334</v>
+      </c>
+      <c r="F77" t="n">
+        <v>10</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>2</v>
+      </c>
+      <c r="K77" t="n">
+        <v>2</v>
+      </c>
+      <c r="L77" t="n">
+        <v>2</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2</v>
+      </c>
+      <c r="N77" t="n">
+        <v>4</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>['59', '88']</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>['33', '45+1']</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>7</v>
+      </c>
+      <c r="T77" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="U77" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="V77" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>5231220</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45060.625</v>
+      </c>
+      <c r="F78" t="n">
+        <v>10</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Delfin SC</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>CD Universidad Católica</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>6</v>
+      </c>
+      <c r="S78" t="n">
+        <v>11</v>
+      </c>
+      <c r="T78" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U78" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V78" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>5231218</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45060.72916666666</v>
+      </c>
+      <c r="F79" t="n">
+        <v>10</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>CSD Independiente del Valle</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Guayaquil City FC</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="n">
+        <v>4</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>4</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>['11', '51', '63', '80']</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>6</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>9</v>
+      </c>
+      <c r="T79" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U79" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W79" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>5231219</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45060.83333333334</v>
+      </c>
+      <c r="F80" t="n">
+        <v>10</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>CS Emelec</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>LDU Quito</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="n">
+        <v>2</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>2</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="n">
+        <v>3</v>
+      </c>
+      <c r="U80" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V80" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X80" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BA80" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>5231221</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45061.875</v>
+      </c>
+      <c r="F81" t="n">
+        <v>10</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Técnico Universitario</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Cumbayá</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>9</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
+      <c r="S81" t="n">
+        <v>9</v>
+      </c>
+      <c r="T81" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U81" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V81" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W81" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X81" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK81"/>
+  <dimension ref="A1:BK86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AT2" t="n">
         <v>1.67</v>
@@ -2324,7 +2324,7 @@
         <v>2.33</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.8</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT14" t="n">
         <v>0.6</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>3</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>2.2</v>
       </c>
       <c r="AT17" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>2</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU18" t="n">
         <v>1.52</v>
@@ -5369,7 +5369,7 @@
         <v>1.4</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU24" t="n">
         <v>1.81</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AT25" t="n">
         <v>0.4</v>
@@ -5772,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT26" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU26" t="n">
         <v>1.41</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT27" t="n">
         <v>0.6</v>
@@ -6181,7 +6181,7 @@
         <v>1.4</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU28" t="n">
         <v>1.23</v>
@@ -6587,7 +6587,7 @@
         <v>2.33</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU30" t="n">
         <v>0.88</v>
@@ -7602,7 +7602,7 @@
         <v>2</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU35" t="n">
         <v>1.5</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT38" t="n">
         <v>0.2</v>
@@ -8617,7 +8617,7 @@
         <v>2.5</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU40" t="n">
         <v>1.59</v>
@@ -9023,7 +9023,7 @@
         <v>1.4</v>
       </c>
       <c r="AT42" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU42" t="n">
         <v>1.13</v>
@@ -9226,7 +9226,7 @@
         <v>1.6</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU43" t="n">
         <v>1.59</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AT44" t="n">
         <v>0</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT45" t="n">
         <v>1</v>
@@ -10441,10 +10441,10 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU49" t="n">
         <v>1.13</v>
@@ -11053,7 +11053,7 @@
         <v>3</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU52" t="n">
         <v>1.9</v>
@@ -11862,10 +11862,10 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU56" t="n">
         <v>1.22</v>
@@ -12474,7 +12474,7 @@
         <v>1.4</v>
       </c>
       <c r="AT59" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU59" t="n">
         <v>1.36</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AT60" t="n">
         <v>0.6</v>
@@ -12877,7 +12877,7 @@
         <v>1.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT61" t="n">
         <v>1.67</v>
@@ -13489,7 +13489,7 @@
         <v>1.4</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU64" t="n">
         <v>0.93</v>
@@ -13895,7 +13895,7 @@
         <v>3</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU66" t="n">
         <v>1.4</v>
@@ -14095,7 +14095,7 @@
         <v>0</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT67" t="n">
         <v>0</v>
@@ -14504,7 +14504,7 @@
         <v>2</v>
       </c>
       <c r="AT69" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU69" t="n">
         <v>1.33</v>
@@ -14704,7 +14704,7 @@
         <v>1.5</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT70" t="n">
         <v>1.8</v>
@@ -14910,7 +14910,7 @@
         <v>2.2</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU71" t="n">
         <v>0.82</v>
@@ -15113,7 +15113,7 @@
         <v>3</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU72" t="n">
         <v>1.68</v>
@@ -15313,7 +15313,7 @@
         <v>0</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT73" t="n">
         <v>0.25</v>
@@ -15516,7 +15516,7 @@
         <v>0.2</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AT74" t="n">
         <v>0.17</v>
@@ -15722,7 +15722,7 @@
         <v>1.8</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU75" t="n">
         <v>1.5</v>
@@ -16992,6 +16992,1021 @@
       </c>
       <c r="BK81" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>5231229</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45065.8125</v>
+      </c>
+      <c r="F82" t="n">
+        <v>11</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>LDU Quito</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Técnico Universitario</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="n">
+        <v>3</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>['43', '81']</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>6</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>11</v>
+      </c>
+      <c r="T82" t="n">
+        <v>2</v>
+      </c>
+      <c r="U82" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>7</v>
+      </c>
+      <c r="W82" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X82" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA82" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>5231231</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45065.91666666666</v>
+      </c>
+      <c r="F83" t="n">
+        <v>11</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Orense SC</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>2</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>2</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>['52', '55']</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>8</v>
+      </c>
+      <c r="R83" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>11</v>
+      </c>
+      <c r="T83" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U83" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>7</v>
+      </c>
+      <c r="W83" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X83" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>5231226</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45066.625</v>
+      </c>
+      <c r="F84" t="n">
+        <v>11</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Mushuc Runa SC</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>SD Aucas</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>8</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>13</v>
+      </c>
+      <c r="T84" t="n">
+        <v>4</v>
+      </c>
+      <c r="U84" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V84" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W84" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X84" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA84" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>5231227</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45066.72916666666</v>
+      </c>
+      <c r="F85" t="n">
+        <v>11</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Deportivo Cuenca</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>CSD Independiente del Valle</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2</v>
+      </c>
+      <c r="N85" t="n">
+        <v>3</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>['35', '74']</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>2</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U85" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V85" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W85" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X85" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BA85" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG85" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH85" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ85" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK85" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>5231225</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45066.83333333334</v>
+      </c>
+      <c r="F86" t="n">
+        <v>11</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>CD Universidad Católica</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>CS Emelec</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="n">
+        <v>3</v>
+      </c>
+      <c r="M86" t="n">
+        <v>2</v>
+      </c>
+      <c r="N86" t="n">
+        <v>5</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>['24', '48', '77']</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>['56', '86']</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>2</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>6</v>
+      </c>
+      <c r="T86" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U86" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V86" t="n">
+        <v>4</v>
+      </c>
+      <c r="W86" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X86" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA86" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG86" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH86" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ86" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK86"/>
+  <dimension ref="A1:BK89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT4" t="n">
         <v>0.4</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT5" t="n">
         <v>1</v>
@@ -1918,7 +1918,7 @@
         <v>2.5</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1.4</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>3</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT17" t="n">
         <v>2.17</v>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT18" t="n">
         <v>0.5</v>
@@ -4354,7 +4354,7 @@
         <v>2.33</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU19" t="n">
         <v>0.88</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT20" t="n">
         <v>0.17</v>
@@ -6990,10 +6990,10 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU32" t="n">
         <v>0.43</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT35" t="n">
         <v>0.17</v>
@@ -8008,7 +8008,7 @@
         <v>3</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AU37" t="n">
         <v>1.91</v>
@@ -8211,7 +8211,7 @@
         <v>1.6</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU38" t="n">
         <v>1.52</v>
@@ -8411,7 +8411,7 @@
         <v>1.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT39" t="n">
         <v>1.67</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT46" t="n">
         <v>0.6</v>
@@ -10241,7 +10241,7 @@
         <v>1.4</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU48" t="n">
         <v>1.47</v>
@@ -10644,10 +10644,10 @@
         <v>0</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AU50" t="n">
         <v>1.25</v>
@@ -10847,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT51" t="n">
         <v>0.8</v>
@@ -11459,7 +11459,7 @@
         <v>1.8</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU54" t="n">
         <v>1.38</v>
@@ -13283,7 +13283,7 @@
         <v>0</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT63" t="n">
         <v>0.17</v>
@@ -13692,7 +13692,7 @@
         <v>2.33</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU65" t="n">
         <v>1.1</v>
@@ -14298,10 +14298,10 @@
         <v>0</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU68" t="n">
         <v>1.18</v>
@@ -14501,7 +14501,7 @@
         <v>1.75</v>
       </c>
       <c r="AS69" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT69" t="n">
         <v>2.17</v>
@@ -14707,7 +14707,7 @@
         <v>1.6</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU70" t="n">
         <v>1.17</v>
@@ -14907,7 +14907,7 @@
         <v>0.25</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT71" t="n">
         <v>0.33</v>
@@ -15316,7 +15316,7 @@
         <v>1.6</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AU73" t="n">
         <v>1.95</v>
@@ -17824,7 +17824,7 @@
         </is>
       </c>
       <c r="E86" s="2" t="n">
-        <v>45066.83333333334</v>
+        <v>45066.86111111111</v>
       </c>
       <c r="F86" t="n">
         <v>11</v>
@@ -18007,6 +18007,615 @@
       </c>
       <c r="BK86" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>5231232</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45067.625</v>
+      </c>
+      <c r="F87" t="n">
+        <v>11</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Gualaceo SC</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="n">
+        <v>2</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>6</v>
+      </c>
+      <c r="T87" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U87" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V87" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W87" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X87" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AX87" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ87" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA87" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB87" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BF87" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG87" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ87" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>5231230</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45067.72916666666</v>
+      </c>
+      <c r="F88" t="n">
+        <v>11</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Cumbayá</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Delfin SC</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="n">
+        <v>1</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>8</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>11</v>
+      </c>
+      <c r="T88" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U88" t="n">
+        <v>2</v>
+      </c>
+      <c r="V88" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W88" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X88" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ88" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA88" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BB88" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BC88" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BF88" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG88" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH88" t="n">
+        <v>21</v>
+      </c>
+      <c r="BI88" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ88" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>5231228</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45067.83333333334</v>
+      </c>
+      <c r="F89" t="n">
+        <v>11</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Guayaquil City FC</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>CD El Nacional</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="n">
+        <v>3</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="n">
+        <v>4</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>['45+6', '68', '73']</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>2</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U89" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V89" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W89" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X89" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ89" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BA89" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG89" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ89" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
@@ -18200,16 +18200,16 @@
         <v>3</v>
       </c>
       <c r="BH87" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BI87" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BJ87" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BK87" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88">

--- a/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK89"/>
+  <dimension ref="A1:BK96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1.83</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1.83</v>
       </c>
       <c r="AT5" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AT7" t="n">
         <v>1.5</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT9" t="n">
         <v>0.5</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT11" t="n">
         <v>0.17</v>
@@ -3339,7 +3339,7 @@
         <v>1.6</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT19" t="n">
         <v>0.33</v>
@@ -4557,7 +4557,7 @@
         <v>1.83</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU20" t="n">
         <v>1.56</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT21" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU21" t="n">
         <v>1.57</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU22" t="n">
         <v>1.77</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU23" t="n">
         <v>1.24</v>
@@ -5572,7 +5572,7 @@
         <v>2</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU25" t="n">
         <v>1.84</v>
@@ -5978,7 +5978,7 @@
         <v>1.6</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU27" t="n">
         <v>2.14</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT28" t="n">
         <v>1.2</v>
@@ -6384,7 +6384,7 @@
         <v>3</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU29" t="n">
         <v>1.35</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT30" t="n">
         <v>0.33</v>
@@ -6787,10 +6787,10 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT31" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU31" t="n">
         <v>1.75</v>
@@ -7399,7 +7399,7 @@
         <v>3</v>
       </c>
       <c r="AT34" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU34" t="n">
         <v>1.48</v>
@@ -7802,10 +7802,10 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU36" t="n">
         <v>1.3</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT37" t="n">
         <v>0.8</v>
@@ -8414,7 +8414,7 @@
         <v>1.83</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU39" t="n">
         <v>1.48</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AT40" t="n">
         <v>0.33</v>
@@ -8820,7 +8820,7 @@
         <v>3</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU41" t="n">
         <v>1.21</v>
@@ -9020,7 +9020,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT42" t="n">
         <v>2.17</v>
@@ -9223,7 +9223,7 @@
         <v>1</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT43" t="n">
         <v>1.2</v>
@@ -9632,7 +9632,7 @@
         <v>1.6</v>
       </c>
       <c r="AT45" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU45" t="n">
         <v>1.76</v>
@@ -9835,7 +9835,7 @@
         <v>1.83</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU46" t="n">
         <v>0.75</v>
@@ -10035,10 +10035,10 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU47" t="n">
         <v>0.97</v>
@@ -10850,7 +10850,7 @@
         <v>1.83</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU51" t="n">
         <v>1.42</v>
@@ -11050,7 +11050,7 @@
         <v>0.33</v>
       </c>
       <c r="AS52" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT52" t="n">
         <v>0.17</v>
@@ -11256,7 +11256,7 @@
         <v>3</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU53" t="n">
         <v>1.49</v>
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT54" t="n">
         <v>0.33</v>
@@ -11662,7 +11662,7 @@
         <v>3</v>
       </c>
       <c r="AT55" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU55" t="n">
         <v>1.48</v>
@@ -12065,10 +12065,10 @@
         <v>0.33</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU57" t="n">
         <v>1.56</v>
@@ -12268,7 +12268,7 @@
         <v>0</v>
       </c>
       <c r="AS58" t="n">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AT58" t="n">
         <v>0</v>
@@ -12677,7 +12677,7 @@
         <v>2</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU60" t="n">
         <v>1.73</v>
@@ -12880,7 +12880,7 @@
         <v>1.67</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU61" t="n">
         <v>1.29</v>
@@ -13080,10 +13080,10 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT62" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU62" t="n">
         <v>1.27</v>
@@ -13286,7 +13286,7 @@
         <v>1.83</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU63" t="n">
         <v>0.89</v>
@@ -13486,7 +13486,7 @@
         <v>0.67</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT64" t="n">
         <v>0.5</v>
@@ -13689,7 +13689,7 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT65" t="n">
         <v>1.5</v>
@@ -14098,7 +14098,7 @@
         <v>1.67</v>
       </c>
       <c r="AT67" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU67" t="n">
         <v>1.29</v>
@@ -15519,7 +15519,7 @@
         <v>2</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU74" t="n">
         <v>1.58</v>
@@ -15719,7 +15719,7 @@
         <v>0.75</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT75" t="n">
         <v>0.5</v>
@@ -15922,10 +15922,10 @@
         <v>0.75</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU76" t="n">
         <v>1.55</v>
@@ -16125,10 +16125,10 @@
         <v>1</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT77" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU77" t="n">
         <v>1</v>
@@ -16328,10 +16328,10 @@
         <v>0.75</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU78" t="n">
         <v>1.1</v>
@@ -16531,7 +16531,7 @@
         <v>0</v>
       </c>
       <c r="AS79" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT79" t="n">
         <v>0</v>
@@ -16737,7 +16737,7 @@
         <v>1.4</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU80" t="n">
         <v>1.3</v>
@@ -16937,10 +16937,10 @@
         <v>0.25</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU81" t="n">
         <v>1.2</v>
@@ -18616,6 +18616,1427 @@
       </c>
       <c r="BK89" t="n">
         <v>19</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>5231236</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45072.875</v>
+      </c>
+      <c r="F90" t="n">
+        <v>12</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>CD Universidad Católica</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="n">
+        <v>2</v>
+      </c>
+      <c r="M90" t="n">
+        <v>2</v>
+      </c>
+      <c r="N90" t="n">
+        <v>4</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>['52', '74']</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>['26', '86']</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>9</v>
+      </c>
+      <c r="T90" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="U90" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="V90" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="W90" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X90" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX90" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ90" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BA90" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BB90" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG90" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ90" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK90" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>5231238</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45073.625</v>
+      </c>
+      <c r="F91" t="n">
+        <v>12</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Técnico Universitario</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Mushuc Runa SC</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>1</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>3</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>8</v>
+      </c>
+      <c r="T91" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U91" t="n">
+        <v>2</v>
+      </c>
+      <c r="V91" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W91" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X91" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AW91" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AX91" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AY91" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ91" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA91" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF91" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG91" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ91" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK91" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>5231237</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45073.72916666666</v>
+      </c>
+      <c r="F92" t="n">
+        <v>12</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Orense SC</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Cumbayá</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>1</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>1</v>
+      </c>
+      <c r="S92" t="n">
+        <v>6</v>
+      </c>
+      <c r="T92" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U92" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V92" t="n">
+        <v>5</v>
+      </c>
+      <c r="W92" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X92" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG92" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>5231240</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45073.83333333334</v>
+      </c>
+      <c r="F93" t="n">
+        <v>12</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Delfin SC</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Gualaceo SC</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>1</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>6</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>10</v>
+      </c>
+      <c r="T93" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U93" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V93" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="W93" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X93" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>5231239</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45074.625</v>
+      </c>
+      <c r="F94" t="n">
+        <v>12</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>SD Aucas</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Deportivo Cuenca</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2</v>
+      </c>
+      <c r="N94" t="n">
+        <v>2</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>['28', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>7</v>
+      </c>
+      <c r="S94" t="n">
+        <v>12</v>
+      </c>
+      <c r="T94" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U94" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V94" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W94" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X94" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BA94" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG94" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ94" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>5231235</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45074.72916666666</v>
+      </c>
+      <c r="F95" t="n">
+        <v>12</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>CSD Independiente del Valle</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>LDU Quito</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>2</v>
+      </c>
+      <c r="L95" t="n">
+        <v>2</v>
+      </c>
+      <c r="M95" t="n">
+        <v>3</v>
+      </c>
+      <c r="N95" t="n">
+        <v>5</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>['14', '34']</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>['53', '59', '80']</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>1</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>6</v>
+      </c>
+      <c r="T95" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U95" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V95" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X95" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>5231233</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45074.83333333334</v>
+      </c>
+      <c r="F96" t="n">
+        <v>12</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>CD El Nacional</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>2</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
+      <c r="K96" t="n">
+        <v>3</v>
+      </c>
+      <c r="L96" t="n">
+        <v>4</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="n">
+        <v>5</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>['18', '27', '58', '64']</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>9</v>
+      </c>
+      <c r="T96" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="U96" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V96" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X96" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="216">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -490,6 +490,27 @@
     <t>['18', '27', '58', '64']</t>
   </si>
   <si>
+    <t>['17', '64']</t>
+  </si>
+  <si>
+    <t>['12', '64', '69', '90+4']</t>
+  </si>
+  <si>
+    <t>['41', '61', '82']</t>
+  </si>
+  <si>
+    <t>['71']</t>
+  </si>
+  <si>
+    <t>['9', '51', '61']</t>
+  </si>
+  <si>
+    <t>['37', '75', '81']</t>
+  </si>
+  <si>
+    <t>['2', '5', '35', '81']</t>
+  </si>
+  <si>
     <t>['24']</t>
   </si>
   <si>
@@ -632,6 +653,15 @@
   </si>
   <si>
     <t>['53', '59', '80']</t>
+  </si>
+  <si>
+    <t>['27', '39']</t>
+  </si>
+  <si>
+    <t>['81', '90+2', '90+8']</t>
+  </si>
+  <si>
+    <t>['43', '56', '69', '77']</t>
   </si>
 </sst>
 </file>
@@ -993,7 +1023,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK97"/>
+  <dimension ref="A1:BK105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1324,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT2">
         <v>1.86</v>
@@ -1428,7 +1458,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="Q3">
         <v>9</v>
@@ -1515,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT3">
         <v>0.14</v>
@@ -1619,7 +1649,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1810,7 +1840,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -1897,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT5">
         <v>0.83</v>
@@ -2001,7 +2031,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2088,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT6">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2192,7 +2222,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2282,7 +2312,7 @@
         <v>2.14</v>
       </c>
       <c r="AT7">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2473,7 +2503,7 @@
         <v>1.33</v>
       </c>
       <c r="AT8">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2574,7 +2604,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2664,7 +2694,7 @@
         <v>2.43</v>
       </c>
       <c r="AT9">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2765,7 +2795,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2956,7 +2986,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3147,7 +3177,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -3234,10 +3264,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT12">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3425,10 +3455,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AT13">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3616,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT14">
         <v>0.5</v>
@@ -3810,7 +3840,7 @@
         <v>1.67</v>
       </c>
       <c r="AT15">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3911,7 +3941,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -4001,7 +4031,7 @@
         <v>3</v>
       </c>
       <c r="AT16">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4189,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT17">
         <v>2.17</v>
@@ -4380,10 +4410,10 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT18">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU18">
         <v>1.52</v>
@@ -4484,7 +4514,7 @@
         <v>97</v>
       </c>
       <c r="P19" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4574,7 +4604,7 @@
         <v>2.43</v>
       </c>
       <c r="AT19">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU19">
         <v>0.88</v>
@@ -4675,7 +4705,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -4953,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT21">
         <v>0.83</v>
@@ -5057,7 +5087,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -5147,7 +5177,7 @@
         <v>2.14</v>
       </c>
       <c r="AT22">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU22">
         <v>1.77</v>
@@ -5248,7 +5278,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5717,7 +5747,7 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT25">
         <v>0.33</v>
@@ -5821,7 +5851,7 @@
         <v>103</v>
       </c>
       <c r="P26" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -6012,7 +6042,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6099,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT27">
         <v>0.5</v>
@@ -6203,7 +6233,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6293,7 +6323,7 @@
         <v>1.33</v>
       </c>
       <c r="AT28">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU28">
         <v>1.23</v>
@@ -6481,7 +6511,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AT29">
         <v>0.14</v>
@@ -6585,7 +6615,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -6675,7 +6705,7 @@
         <v>2.43</v>
       </c>
       <c r="AT30">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU30">
         <v>0.88</v>
@@ -6863,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT31">
         <v>0.5</v>
@@ -7054,10 +7084,10 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT32">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU32">
         <v>0.43</v>
@@ -7158,7 +7188,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7248,7 +7278,7 @@
         <v>3</v>
       </c>
       <c r="AT33">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU33">
         <v>0.91</v>
@@ -7627,7 +7657,7 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT35">
         <v>0.17</v>
@@ -7731,7 +7761,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7821,7 +7851,7 @@
         <v>2</v>
       </c>
       <c r="AT36">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU36">
         <v>1.3</v>
@@ -8009,10 +8039,10 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT37">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU37">
         <v>1.91</v>
@@ -8200,10 +8230,10 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT38">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU38">
         <v>1.52</v>
@@ -8304,7 +8334,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -8495,7 +8525,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="Q40">
         <v>8</v>
@@ -8585,7 +8615,7 @@
         <v>2.14</v>
       </c>
       <c r="AT40">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU40">
         <v>1.59</v>
@@ -8686,7 +8716,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -8773,7 +8803,7 @@
         <v>0.5</v>
       </c>
       <c r="AS41">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AT41">
         <v>0.33</v>
@@ -9068,7 +9098,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9155,10 +9185,10 @@
         <v>1</v>
       </c>
       <c r="AS43">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT43">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU43">
         <v>1.59</v>
@@ -9259,7 +9289,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9346,10 +9376,10 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT44">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU44">
         <v>1.83</v>
@@ -9450,7 +9480,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="Q45">
         <v>7</v>
@@ -9537,7 +9567,7 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT45">
         <v>0.83</v>
@@ -9728,7 +9758,7 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT46">
         <v>0.5</v>
@@ -10023,7 +10053,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="Q48">
         <v>6</v>
@@ -10113,7 +10143,7 @@
         <v>1.33</v>
       </c>
       <c r="AT48">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU48">
         <v>1.47</v>
@@ -10214,7 +10244,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="Q49">
         <v>12</v>
@@ -10304,7 +10334,7 @@
         <v>1.67</v>
       </c>
       <c r="AT49">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU49">
         <v>1.13</v>
@@ -10405,7 +10435,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10495,7 +10525,7 @@
         <v>1.83</v>
       </c>
       <c r="AT50">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU50">
         <v>1.25</v>
@@ -10683,10 +10713,10 @@
         <v>1</v>
       </c>
       <c r="AS51">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT51">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU51">
         <v>1.42</v>
@@ -10874,7 +10904,7 @@
         <v>0.33</v>
       </c>
       <c r="AS52">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT52">
         <v>0.17</v>
@@ -10978,7 +11008,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11169,7 +11199,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11259,7 +11289,7 @@
         <v>2</v>
       </c>
       <c r="AT54">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU54">
         <v>1.38</v>
@@ -11360,7 +11390,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="Q55">
         <v>8</v>
@@ -11447,7 +11477,7 @@
         <v>0</v>
       </c>
       <c r="AS55">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AT55">
         <v>0.5</v>
@@ -11638,10 +11668,10 @@
         <v>0</v>
       </c>
       <c r="AS56">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT56">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU56">
         <v>1.22</v>
@@ -11742,7 +11772,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12023,7 +12053,7 @@
         <v>2.14</v>
       </c>
       <c r="AT58">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU58">
         <v>1.45</v>
@@ -12124,7 +12154,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12315,7 +12345,7 @@
         <v>133</v>
       </c>
       <c r="P60" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -12402,7 +12432,7 @@
         <v>0</v>
       </c>
       <c r="AS60">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT60">
         <v>0.5</v>
@@ -12506,7 +12536,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -12697,7 +12727,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12784,7 +12814,7 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT62">
         <v>0.83</v>
@@ -12888,7 +12918,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -12975,7 +13005,7 @@
         <v>0</v>
       </c>
       <c r="AS63">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT63">
         <v>0.14</v>
@@ -13169,7 +13199,7 @@
         <v>1.33</v>
       </c>
       <c r="AT64">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU64">
         <v>0.93</v>
@@ -13360,7 +13390,7 @@
         <v>2.43</v>
       </c>
       <c r="AT65">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU65">
         <v>1.1</v>
@@ -13461,7 +13491,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -13843,7 +13873,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="Q68">
         <v>1</v>
@@ -13933,7 +13963,7 @@
         <v>1.83</v>
       </c>
       <c r="AT68">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU68">
         <v>1.18</v>
@@ -14034,7 +14064,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="Q69">
         <v>1</v>
@@ -14121,7 +14151,7 @@
         <v>1.75</v>
       </c>
       <c r="AS69">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT69">
         <v>2.17</v>
@@ -14312,10 +14342,10 @@
         <v>1.5</v>
       </c>
       <c r="AS70">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT70">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU70">
         <v>1.17</v>
@@ -14503,10 +14533,10 @@
         <v>0.25</v>
       </c>
       <c r="AS71">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT71">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU71">
         <v>0.82</v>
@@ -14607,7 +14637,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -14694,10 +14724,10 @@
         <v>1.67</v>
       </c>
       <c r="AS72">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AT72">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU72">
         <v>1.68</v>
@@ -14885,10 +14915,10 @@
         <v>0</v>
       </c>
       <c r="AS73">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT73">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU73">
         <v>1.95</v>
@@ -15076,7 +15106,7 @@
         <v>0.2</v>
       </c>
       <c r="AS74">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT74">
         <v>0.14</v>
@@ -15180,7 +15210,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15270,7 +15300,7 @@
         <v>2</v>
       </c>
       <c r="AT75">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU75">
         <v>1.5</v>
@@ -15562,7 +15592,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -15843,7 +15873,7 @@
         <v>2.43</v>
       </c>
       <c r="AT78">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU78">
         <v>1.1</v>
@@ -16031,10 +16061,10 @@
         <v>0</v>
       </c>
       <c r="AS79">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT79">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU79">
         <v>1.72</v>
@@ -16135,7 +16165,7 @@
         <v>112</v>
       </c>
       <c r="P80" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16413,7 +16443,7 @@
         <v>0.25</v>
       </c>
       <c r="AS81">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT81">
         <v>0.33</v>
@@ -16517,7 +16547,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -16604,7 +16634,7 @@
         <v>0.2</v>
       </c>
       <c r="AS82">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT82">
         <v>0.17</v>
@@ -16795,10 +16825,10 @@
         <v>0.6</v>
       </c>
       <c r="AS83">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AT83">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU83">
         <v>1.76</v>
@@ -16986,10 +17016,10 @@
         <v>1.25</v>
       </c>
       <c r="AS84">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT84">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU84">
         <v>1.2</v>
@@ -17090,7 +17120,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -17177,7 +17207,7 @@
         <v>2</v>
       </c>
       <c r="AS85">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT85">
         <v>2.17</v>
@@ -17281,7 +17311,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -17371,7 +17401,7 @@
         <v>1.67</v>
       </c>
       <c r="AT86">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU86">
         <v>1.51</v>
@@ -17559,10 +17589,10 @@
         <v>0.2</v>
       </c>
       <c r="AS87">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT87">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU87">
         <v>1.26</v>
@@ -17750,10 +17780,10 @@
         <v>0.25</v>
       </c>
       <c r="AS88">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT88">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU88">
         <v>0.93</v>
@@ -17854,7 +17884,7 @@
         <v>151</v>
       </c>
       <c r="P89" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -17944,7 +17974,7 @@
         <v>1.83</v>
       </c>
       <c r="AT89">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU89">
         <v>1.19</v>
@@ -18045,7 +18075,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18135,7 +18165,7 @@
         <v>1.33</v>
       </c>
       <c r="AT90">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU90">
         <v>1.09</v>
@@ -18323,7 +18353,7 @@
         <v>0.17</v>
       </c>
       <c r="AS91">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT91">
         <v>0.14</v>
@@ -18809,7 +18839,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19000,7 +19030,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="Q95">
         <v>1</v>
@@ -19087,7 +19117,7 @@
         <v>1.67</v>
       </c>
       <c r="AS95">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT95">
         <v>1.86</v>
@@ -19472,7 +19502,7 @@
         <v>1.33</v>
       </c>
       <c r="AT97">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU97">
         <v>1.33</v>
@@ -19524,6 +19554,1534 @@
       </c>
       <c r="BK97">
         <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:63">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>5231244</v>
+      </c>
+      <c r="C98" t="s">
+        <v>63</v>
+      </c>
+      <c r="D98" t="s">
+        <v>64</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45079.79166666666</v>
+      </c>
+      <c r="F98">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s">
+        <v>66</v>
+      </c>
+      <c r="H98" t="s">
+        <v>70</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>2</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>2</v>
+      </c>
+      <c r="O98" t="s">
+        <v>158</v>
+      </c>
+      <c r="P98" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q98">
+        <v>1</v>
+      </c>
+      <c r="R98">
+        <v>4</v>
+      </c>
+      <c r="S98">
+        <v>5</v>
+      </c>
+      <c r="T98">
+        <v>1.9</v>
+      </c>
+      <c r="U98">
+        <v>2.4</v>
+      </c>
+      <c r="V98">
+        <v>5.5</v>
+      </c>
+      <c r="W98">
+        <v>1.29</v>
+      </c>
+      <c r="X98">
+        <v>3.25</v>
+      </c>
+      <c r="Y98">
+        <v>2.5</v>
+      </c>
+      <c r="Z98">
+        <v>1.48</v>
+      </c>
+      <c r="AA98">
+        <v>5.5</v>
+      </c>
+      <c r="AB98">
+        <v>1.13</v>
+      </c>
+      <c r="AC98">
+        <v>1.33</v>
+      </c>
+      <c r="AD98">
+        <v>4.65</v>
+      </c>
+      <c r="AE98">
+        <v>7.24</v>
+      </c>
+      <c r="AF98">
+        <v>1.03</v>
+      </c>
+      <c r="AG98">
+        <v>12</v>
+      </c>
+      <c r="AH98">
+        <v>1.22</v>
+      </c>
+      <c r="AI98">
+        <v>4</v>
+      </c>
+      <c r="AJ98">
+        <v>1.57</v>
+      </c>
+      <c r="AK98">
+        <v>2.25</v>
+      </c>
+      <c r="AL98">
+        <v>1.87</v>
+      </c>
+      <c r="AM98">
+        <v>1.87</v>
+      </c>
+      <c r="AN98">
+        <v>1.06</v>
+      </c>
+      <c r="AO98">
+        <v>1.15</v>
+      </c>
+      <c r="AP98">
+        <v>2.6</v>
+      </c>
+      <c r="AQ98">
+        <v>2.5</v>
+      </c>
+      <c r="AR98">
+        <v>1.2</v>
+      </c>
+      <c r="AS98">
+        <v>2.57</v>
+      </c>
+      <c r="AT98">
+        <v>1</v>
+      </c>
+      <c r="AU98">
+        <v>1.72</v>
+      </c>
+      <c r="AV98">
+        <v>0.92</v>
+      </c>
+      <c r="AW98">
+        <v>2.64</v>
+      </c>
+      <c r="AX98">
+        <v>1.23</v>
+      </c>
+      <c r="AY98">
+        <v>10</v>
+      </c>
+      <c r="AZ98">
+        <v>5.15</v>
+      </c>
+      <c r="BA98">
+        <v>1.27</v>
+      </c>
+      <c r="BB98">
+        <v>1.56</v>
+      </c>
+      <c r="BC98">
+        <v>1.95</v>
+      </c>
+      <c r="BD98">
+        <v>2.41</v>
+      </c>
+      <c r="BE98">
+        <v>3.2</v>
+      </c>
+      <c r="BF98">
+        <v>5</v>
+      </c>
+      <c r="BG98">
+        <v>7</v>
+      </c>
+      <c r="BH98">
+        <v>11</v>
+      </c>
+      <c r="BI98">
+        <v>4</v>
+      </c>
+      <c r="BJ98">
+        <v>16</v>
+      </c>
+      <c r="BK98">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:63">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>5231248</v>
+      </c>
+      <c r="C99" t="s">
+        <v>63</v>
+      </c>
+      <c r="D99" t="s">
+        <v>64</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45079.89583333334</v>
+      </c>
+      <c r="F99">
+        <v>13</v>
+      </c>
+      <c r="G99" t="s">
+        <v>75</v>
+      </c>
+      <c r="H99" t="s">
+        <v>73</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>2</v>
+      </c>
+      <c r="K99">
+        <v>3</v>
+      </c>
+      <c r="L99">
+        <v>4</v>
+      </c>
+      <c r="M99">
+        <v>2</v>
+      </c>
+      <c r="N99">
+        <v>6</v>
+      </c>
+      <c r="O99" t="s">
+        <v>159</v>
+      </c>
+      <c r="P99" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q99">
+        <v>5</v>
+      </c>
+      <c r="R99">
+        <v>4</v>
+      </c>
+      <c r="S99">
+        <v>9</v>
+      </c>
+      <c r="T99">
+        <v>1.78</v>
+      </c>
+      <c r="U99">
+        <v>2.5</v>
+      </c>
+      <c r="V99">
+        <v>6.25</v>
+      </c>
+      <c r="W99">
+        <v>1.27</v>
+      </c>
+      <c r="X99">
+        <v>3.4</v>
+      </c>
+      <c r="Y99">
+        <v>2.4</v>
+      </c>
+      <c r="Z99">
+        <v>1.51</v>
+      </c>
+      <c r="AA99">
+        <v>5.25</v>
+      </c>
+      <c r="AB99">
+        <v>1.13</v>
+      </c>
+      <c r="AC99">
+        <v>1.25</v>
+      </c>
+      <c r="AD99">
+        <v>5.35</v>
+      </c>
+      <c r="AE99">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="AF99">
+        <v>1.02</v>
+      </c>
+      <c r="AG99">
+        <v>13.5</v>
+      </c>
+      <c r="AH99">
+        <v>1.2</v>
+      </c>
+      <c r="AI99">
+        <v>4.2</v>
+      </c>
+      <c r="AJ99">
+        <v>1.63</v>
+      </c>
+      <c r="AK99">
+        <v>2.14</v>
+      </c>
+      <c r="AL99">
+        <v>1.88</v>
+      </c>
+      <c r="AM99">
+        <v>1.8</v>
+      </c>
+      <c r="AN99">
+        <v>1.08</v>
+      </c>
+      <c r="AO99">
+        <v>1.13</v>
+      </c>
+      <c r="AP99">
+        <v>2.5</v>
+      </c>
+      <c r="AQ99">
+        <v>1.6</v>
+      </c>
+      <c r="AR99">
+        <v>0.33</v>
+      </c>
+      <c r="AS99">
+        <v>1.83</v>
+      </c>
+      <c r="AT99">
+        <v>0.29</v>
+      </c>
+      <c r="AU99">
+        <v>1.91</v>
+      </c>
+      <c r="AV99">
+        <v>1.18</v>
+      </c>
+      <c r="AW99">
+        <v>3.09</v>
+      </c>
+      <c r="AX99">
+        <v>1.19</v>
+      </c>
+      <c r="AY99">
+        <v>10.75</v>
+      </c>
+      <c r="AZ99">
+        <v>5.9</v>
+      </c>
+      <c r="BA99">
+        <v>1.31</v>
+      </c>
+      <c r="BB99">
+        <v>1.93</v>
+      </c>
+      <c r="BC99">
+        <v>1.98</v>
+      </c>
+      <c r="BD99">
+        <v>2.57</v>
+      </c>
+      <c r="BE99">
+        <v>3.48</v>
+      </c>
+      <c r="BF99">
+        <v>7</v>
+      </c>
+      <c r="BG99">
+        <v>4</v>
+      </c>
+      <c r="BH99">
+        <v>7</v>
+      </c>
+      <c r="BI99">
+        <v>5</v>
+      </c>
+      <c r="BJ99">
+        <v>14</v>
+      </c>
+      <c r="BK99">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:63">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>5231247</v>
+      </c>
+      <c r="C100" t="s">
+        <v>63</v>
+      </c>
+      <c r="D100" t="s">
+        <v>64</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45080.70833333334</v>
+      </c>
+      <c r="F100">
+        <v>13</v>
+      </c>
+      <c r="G100" t="s">
+        <v>77</v>
+      </c>
+      <c r="H100" t="s">
+        <v>79</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>3</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>4</v>
+      </c>
+      <c r="O100" t="s">
+        <v>160</v>
+      </c>
+      <c r="P100" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q100">
+        <v>8</v>
+      </c>
+      <c r="R100">
+        <v>6</v>
+      </c>
+      <c r="S100">
+        <v>14</v>
+      </c>
+      <c r="T100">
+        <v>2.81</v>
+      </c>
+      <c r="U100">
+        <v>2.04</v>
+      </c>
+      <c r="V100">
+        <v>3.84</v>
+      </c>
+      <c r="W100">
+        <v>1.44</v>
+      </c>
+      <c r="X100">
+        <v>2.55</v>
+      </c>
+      <c r="Y100">
+        <v>2.95</v>
+      </c>
+      <c r="Z100">
+        <v>1.34</v>
+      </c>
+      <c r="AA100">
+        <v>8</v>
+      </c>
+      <c r="AB100">
+        <v>1.07</v>
+      </c>
+      <c r="AC100">
+        <v>2.25</v>
+      </c>
+      <c r="AD100">
+        <v>3.1</v>
+      </c>
+      <c r="AE100">
+        <v>2.87</v>
+      </c>
+      <c r="AF100">
+        <v>1.07</v>
+      </c>
+      <c r="AG100">
+        <v>8</v>
+      </c>
+      <c r="AH100">
+        <v>1.32</v>
+      </c>
+      <c r="AI100">
+        <v>3.1</v>
+      </c>
+      <c r="AJ100">
+        <v>1.95</v>
+      </c>
+      <c r="AK100">
+        <v>1.8</v>
+      </c>
+      <c r="AL100">
+        <v>1.85</v>
+      </c>
+      <c r="AM100">
+        <v>1.91</v>
+      </c>
+      <c r="AN100">
+        <v>1.29</v>
+      </c>
+      <c r="AO100">
+        <v>1.28</v>
+      </c>
+      <c r="AP100">
+        <v>1.51</v>
+      </c>
+      <c r="AQ100">
+        <v>1.6</v>
+      </c>
+      <c r="AR100">
+        <v>0.5</v>
+      </c>
+      <c r="AS100">
+        <v>1.83</v>
+      </c>
+      <c r="AT100">
+        <v>0.43</v>
+      </c>
+      <c r="AU100">
+        <v>1.36</v>
+      </c>
+      <c r="AV100">
+        <v>1.18</v>
+      </c>
+      <c r="AW100">
+        <v>2.54</v>
+      </c>
+      <c r="AX100">
+        <v>1.79</v>
+      </c>
+      <c r="AY100">
+        <v>8.5</v>
+      </c>
+      <c r="AZ100">
+        <v>2.33</v>
+      </c>
+      <c r="BA100">
+        <v>1.36</v>
+      </c>
+      <c r="BB100">
+        <v>1.66</v>
+      </c>
+      <c r="BC100">
+        <v>2.12</v>
+      </c>
+      <c r="BD100">
+        <v>2.88</v>
+      </c>
+      <c r="BE100">
+        <v>4.1</v>
+      </c>
+      <c r="BF100">
+        <v>7</v>
+      </c>
+      <c r="BG100">
+        <v>4</v>
+      </c>
+      <c r="BH100">
+        <v>6</v>
+      </c>
+      <c r="BI100">
+        <v>2</v>
+      </c>
+      <c r="BJ100">
+        <v>13</v>
+      </c>
+      <c r="BK100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:63">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>5231241</v>
+      </c>
+      <c r="C101" t="s">
+        <v>63</v>
+      </c>
+      <c r="D101" t="s">
+        <v>64</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45080.83333333334</v>
+      </c>
+      <c r="F101">
+        <v>13</v>
+      </c>
+      <c r="G101" t="s">
+        <v>76</v>
+      </c>
+      <c r="H101" t="s">
+        <v>71</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>3</v>
+      </c>
+      <c r="N101">
+        <v>4</v>
+      </c>
+      <c r="O101" t="s">
+        <v>161</v>
+      </c>
+      <c r="P101" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q101">
+        <v>6</v>
+      </c>
+      <c r="R101">
+        <v>3</v>
+      </c>
+      <c r="S101">
+        <v>9</v>
+      </c>
+      <c r="T101">
+        <v>2.25</v>
+      </c>
+      <c r="U101">
+        <v>2.24</v>
+      </c>
+      <c r="V101">
+        <v>4.7</v>
+      </c>
+      <c r="W101">
+        <v>1.33</v>
+      </c>
+      <c r="X101">
+        <v>3.25</v>
+      </c>
+      <c r="Y101">
+        <v>2.5</v>
+      </c>
+      <c r="Z101">
+        <v>1.5</v>
+      </c>
+      <c r="AA101">
+        <v>5.5</v>
+      </c>
+      <c r="AB101">
+        <v>1.12</v>
+      </c>
+      <c r="AC101">
+        <v>1.7</v>
+      </c>
+      <c r="AD101">
+        <v>3.4</v>
+      </c>
+      <c r="AE101">
+        <v>4.25</v>
+      </c>
+      <c r="AF101">
+        <v>1.05</v>
+      </c>
+      <c r="AG101">
+        <v>9</v>
+      </c>
+      <c r="AH101">
+        <v>1.25</v>
+      </c>
+      <c r="AI101">
+        <v>3.75</v>
+      </c>
+      <c r="AJ101">
+        <v>1.75</v>
+      </c>
+      <c r="AK101">
+        <v>1.95</v>
+      </c>
+      <c r="AL101">
+        <v>1.73</v>
+      </c>
+      <c r="AM101">
+        <v>2</v>
+      </c>
+      <c r="AN101">
+        <v>1.17</v>
+      </c>
+      <c r="AO101">
+        <v>1.2</v>
+      </c>
+      <c r="AP101">
+        <v>1.9</v>
+      </c>
+      <c r="AQ101">
+        <v>3</v>
+      </c>
+      <c r="AR101">
+        <v>0.33</v>
+      </c>
+      <c r="AS101">
+        <v>2.57</v>
+      </c>
+      <c r="AT101">
+        <v>0.71</v>
+      </c>
+      <c r="AU101">
+        <v>1.82</v>
+      </c>
+      <c r="AV101">
+        <v>1.2</v>
+      </c>
+      <c r="AW101">
+        <v>3.02</v>
+      </c>
+      <c r="AX101">
+        <v>1.53</v>
+      </c>
+      <c r="AY101">
+        <v>9.1</v>
+      </c>
+      <c r="AZ101">
+        <v>2.92</v>
+      </c>
+      <c r="BA101">
+        <v>1.26</v>
+      </c>
+      <c r="BB101">
+        <v>1.55</v>
+      </c>
+      <c r="BC101">
+        <v>1.92</v>
+      </c>
+      <c r="BD101">
+        <v>2.38</v>
+      </c>
+      <c r="BE101">
+        <v>3.28</v>
+      </c>
+      <c r="BF101">
+        <v>2</v>
+      </c>
+      <c r="BG101">
+        <v>9</v>
+      </c>
+      <c r="BH101">
+        <v>5</v>
+      </c>
+      <c r="BI101">
+        <v>6</v>
+      </c>
+      <c r="BJ101">
+        <v>7</v>
+      </c>
+      <c r="BK101">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:63">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>5231243</v>
+      </c>
+      <c r="C102" t="s">
+        <v>63</v>
+      </c>
+      <c r="D102" t="s">
+        <v>64</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45081.625</v>
+      </c>
+      <c r="F102">
+        <v>13</v>
+      </c>
+      <c r="G102" t="s">
+        <v>80</v>
+      </c>
+      <c r="H102" t="s">
+        <v>78</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>1</v>
+      </c>
+      <c r="O102" t="s">
+        <v>86</v>
+      </c>
+      <c r="P102" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q102">
+        <v>3</v>
+      </c>
+      <c r="R102">
+        <v>3</v>
+      </c>
+      <c r="S102">
+        <v>6</v>
+      </c>
+      <c r="T102">
+        <v>4.4</v>
+      </c>
+      <c r="U102">
+        <v>2</v>
+      </c>
+      <c r="V102">
+        <v>2.5</v>
+      </c>
+      <c r="W102">
+        <v>1.46</v>
+      </c>
+      <c r="X102">
+        <v>2.55</v>
+      </c>
+      <c r="Y102">
+        <v>3</v>
+      </c>
+      <c r="Z102">
+        <v>1.34</v>
+      </c>
+      <c r="AA102">
+        <v>8</v>
+      </c>
+      <c r="AB102">
+        <v>1.07</v>
+      </c>
+      <c r="AC102">
+        <v>4.2</v>
+      </c>
+      <c r="AD102">
+        <v>3.56</v>
+      </c>
+      <c r="AE102">
+        <v>1.81</v>
+      </c>
+      <c r="AF102">
+        <v>1.07</v>
+      </c>
+      <c r="AG102">
+        <v>7.75</v>
+      </c>
+      <c r="AH102">
+        <v>1.36</v>
+      </c>
+      <c r="AI102">
+        <v>2.95</v>
+      </c>
+      <c r="AJ102">
+        <v>2.01</v>
+      </c>
+      <c r="AK102">
+        <v>1.75</v>
+      </c>
+      <c r="AL102">
+        <v>1.93</v>
+      </c>
+      <c r="AM102">
+        <v>1.75</v>
+      </c>
+      <c r="AN102">
+        <v>1.83</v>
+      </c>
+      <c r="AO102">
+        <v>1.31</v>
+      </c>
+      <c r="AP102">
+        <v>1.23</v>
+      </c>
+      <c r="AQ102">
+        <v>1.83</v>
+      </c>
+      <c r="AR102">
+        <v>0.83</v>
+      </c>
+      <c r="AS102">
+        <v>1.57</v>
+      </c>
+      <c r="AT102">
+        <v>1.14</v>
+      </c>
+      <c r="AU102">
+        <v>1.15</v>
+      </c>
+      <c r="AV102">
+        <v>1.68</v>
+      </c>
+      <c r="AW102">
+        <v>2.83</v>
+      </c>
+      <c r="AX102">
+        <v>2.74</v>
+      </c>
+      <c r="AY102">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ102">
+        <v>1.6</v>
+      </c>
+      <c r="BA102">
+        <v>1.41</v>
+      </c>
+      <c r="BB102">
+        <v>1.93</v>
+      </c>
+      <c r="BC102">
+        <v>1.9</v>
+      </c>
+      <c r="BD102">
+        <v>3.08</v>
+      </c>
+      <c r="BE102">
+        <v>4.1</v>
+      </c>
+      <c r="BF102">
+        <v>2</v>
+      </c>
+      <c r="BG102">
+        <v>4</v>
+      </c>
+      <c r="BH102">
+        <v>6</v>
+      </c>
+      <c r="BI102">
+        <v>2</v>
+      </c>
+      <c r="BJ102">
+        <v>8</v>
+      </c>
+      <c r="BK102">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:63">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>5231242</v>
+      </c>
+      <c r="C103" t="s">
+        <v>63</v>
+      </c>
+      <c r="D103" t="s">
+        <v>64</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45081.72916666666</v>
+      </c>
+      <c r="F103">
+        <v>13</v>
+      </c>
+      <c r="G103" t="s">
+        <v>69</v>
+      </c>
+      <c r="H103" t="s">
+        <v>67</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>3</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>3</v>
+      </c>
+      <c r="O103" t="s">
+        <v>162</v>
+      </c>
+      <c r="P103" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q103">
+        <v>7</v>
+      </c>
+      <c r="R103">
+        <v>1</v>
+      </c>
+      <c r="S103">
+        <v>8</v>
+      </c>
+      <c r="T103">
+        <v>2.34</v>
+      </c>
+      <c r="U103">
+        <v>2.23</v>
+      </c>
+      <c r="V103">
+        <v>5.32</v>
+      </c>
+      <c r="W103">
+        <v>1.41</v>
+      </c>
+      <c r="X103">
+        <v>2.88</v>
+      </c>
+      <c r="Y103">
+        <v>3.06</v>
+      </c>
+      <c r="Z103">
+        <v>1.37</v>
+      </c>
+      <c r="AA103">
+        <v>6</v>
+      </c>
+      <c r="AB103">
+        <v>1.11</v>
+      </c>
+      <c r="AC103">
+        <v>1.71</v>
+      </c>
+      <c r="AD103">
+        <v>3.74</v>
+      </c>
+      <c r="AE103">
+        <v>4.56</v>
+      </c>
+      <c r="AF103">
+        <v>1.05</v>
+      </c>
+      <c r="AG103">
+        <v>9</v>
+      </c>
+      <c r="AH103">
+        <v>1.3</v>
+      </c>
+      <c r="AI103">
+        <v>3.4</v>
+      </c>
+      <c r="AJ103">
+        <v>1.88</v>
+      </c>
+      <c r="AK103">
+        <v>1.86</v>
+      </c>
+      <c r="AL103">
+        <v>1.85</v>
+      </c>
+      <c r="AM103">
+        <v>1.85</v>
+      </c>
+      <c r="AN103">
+        <v>1.17</v>
+      </c>
+      <c r="AO103">
+        <v>1.22</v>
+      </c>
+      <c r="AP103">
+        <v>1.83</v>
+      </c>
+      <c r="AQ103">
+        <v>1.83</v>
+      </c>
+      <c r="AR103">
+        <v>0.17</v>
+      </c>
+      <c r="AS103">
+        <v>2</v>
+      </c>
+      <c r="AT103">
+        <v>0.14</v>
+      </c>
+      <c r="AU103">
+        <v>1.35</v>
+      </c>
+      <c r="AV103">
+        <v>0.84</v>
+      </c>
+      <c r="AW103">
+        <v>2.19</v>
+      </c>
+      <c r="AX103">
+        <v>1.4</v>
+      </c>
+      <c r="AY103">
+        <v>8.9</v>
+      </c>
+      <c r="AZ103">
+        <v>3.58</v>
+      </c>
+      <c r="BA103">
+        <v>1.54</v>
+      </c>
+      <c r="BB103">
+        <v>2.03</v>
+      </c>
+      <c r="BC103">
+        <v>2.42</v>
+      </c>
+      <c r="BD103">
+        <v>3.42</v>
+      </c>
+      <c r="BE103">
+        <v>4.5</v>
+      </c>
+      <c r="BF103">
+        <v>7</v>
+      </c>
+      <c r="BG103">
+        <v>2</v>
+      </c>
+      <c r="BH103">
+        <v>3</v>
+      </c>
+      <c r="BI103">
+        <v>4</v>
+      </c>
+      <c r="BJ103">
+        <v>10</v>
+      </c>
+      <c r="BK103">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:63">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>5231245</v>
+      </c>
+      <c r="C104" t="s">
+        <v>63</v>
+      </c>
+      <c r="D104" t="s">
+        <v>64</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45081.83333333334</v>
+      </c>
+      <c r="F104">
+        <v>13</v>
+      </c>
+      <c r="G104" t="s">
+        <v>68</v>
+      </c>
+      <c r="H104" t="s">
+        <v>74</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>2</v>
+      </c>
+      <c r="L104">
+        <v>3</v>
+      </c>
+      <c r="M104">
+        <v>4</v>
+      </c>
+      <c r="N104">
+        <v>7</v>
+      </c>
+      <c r="O104" t="s">
+        <v>163</v>
+      </c>
+      <c r="P104" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q104">
+        <v>2</v>
+      </c>
+      <c r="R104">
+        <v>4</v>
+      </c>
+      <c r="S104">
+        <v>6</v>
+      </c>
+      <c r="T104">
+        <v>3.7</v>
+      </c>
+      <c r="U104">
+        <v>2.05</v>
+      </c>
+      <c r="V104">
+        <v>2.6</v>
+      </c>
+      <c r="W104">
+        <v>1.38</v>
+      </c>
+      <c r="X104">
+        <v>2.8</v>
+      </c>
+      <c r="Y104">
+        <v>2.7</v>
+      </c>
+      <c r="Z104">
+        <v>1.42</v>
+      </c>
+      <c r="AA104">
+        <v>6.5</v>
+      </c>
+      <c r="AB104">
+        <v>1.09</v>
+      </c>
+      <c r="AC104">
+        <v>2.84</v>
+      </c>
+      <c r="AD104">
+        <v>3.4</v>
+      </c>
+      <c r="AE104">
+        <v>2.36</v>
+      </c>
+      <c r="AF104">
+        <v>1.06</v>
+      </c>
+      <c r="AG104">
+        <v>9.25</v>
+      </c>
+      <c r="AH104">
+        <v>1.3</v>
+      </c>
+      <c r="AI104">
+        <v>3.25</v>
+      </c>
+      <c r="AJ104">
+        <v>1.89</v>
+      </c>
+      <c r="AK104">
+        <v>1.85</v>
+      </c>
+      <c r="AL104">
+        <v>1.73</v>
+      </c>
+      <c r="AM104">
+        <v>1.95</v>
+      </c>
+      <c r="AN104">
+        <v>1.71</v>
+      </c>
+      <c r="AO104">
+        <v>1.29</v>
+      </c>
+      <c r="AP104">
+        <v>1.31</v>
+      </c>
+      <c r="AQ104">
+        <v>1.83</v>
+      </c>
+      <c r="AR104">
+        <v>1.5</v>
+      </c>
+      <c r="AS104">
+        <v>1.57</v>
+      </c>
+      <c r="AT104">
+        <v>1.71</v>
+      </c>
+      <c r="AU104">
+        <v>1.23</v>
+      </c>
+      <c r="AV104">
+        <v>1.75</v>
+      </c>
+      <c r="AW104">
+        <v>2.98</v>
+      </c>
+      <c r="AX104">
+        <v>2.15</v>
+      </c>
+      <c r="AY104">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ104">
+        <v>1.9</v>
+      </c>
+      <c r="BA104">
+        <v>1.21</v>
+      </c>
+      <c r="BB104">
+        <v>1.41</v>
+      </c>
+      <c r="BC104">
+        <v>1.78</v>
+      </c>
+      <c r="BD104">
+        <v>2.21</v>
+      </c>
+      <c r="BE104">
+        <v>2.91</v>
+      </c>
+      <c r="BF104">
+        <v>8</v>
+      </c>
+      <c r="BG104">
+        <v>9</v>
+      </c>
+      <c r="BH104">
+        <v>4</v>
+      </c>
+      <c r="BI104">
+        <v>10</v>
+      </c>
+      <c r="BJ104">
+        <v>12</v>
+      </c>
+      <c r="BK104">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:63">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>5231246</v>
+      </c>
+      <c r="C105" t="s">
+        <v>63</v>
+      </c>
+      <c r="D105" t="s">
+        <v>64</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45082.875</v>
+      </c>
+      <c r="F105">
+        <v>13</v>
+      </c>
+      <c r="G105" t="s">
+        <v>65</v>
+      </c>
+      <c r="H105" t="s">
+        <v>72</v>
+      </c>
+      <c r="I105">
+        <v>3</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>3</v>
+      </c>
+      <c r="L105">
+        <v>4</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>4</v>
+      </c>
+      <c r="O105" t="s">
+        <v>164</v>
+      </c>
+      <c r="P105" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q105">
+        <v>3</v>
+      </c>
+      <c r="R105">
+        <v>2</v>
+      </c>
+      <c r="S105">
+        <v>5</v>
+      </c>
+      <c r="T105">
+        <v>2.6</v>
+      </c>
+      <c r="U105">
+        <v>2.2</v>
+      </c>
+      <c r="V105">
+        <v>4.33</v>
+      </c>
+      <c r="W105">
+        <v>1.4</v>
+      </c>
+      <c r="X105">
+        <v>2.75</v>
+      </c>
+      <c r="Y105">
+        <v>3</v>
+      </c>
+      <c r="Z105">
+        <v>1.36</v>
+      </c>
+      <c r="AA105">
+        <v>8</v>
+      </c>
+      <c r="AB105">
+        <v>1.08</v>
+      </c>
+      <c r="AC105">
+        <v>1.95</v>
+      </c>
+      <c r="AD105">
+        <v>3.3</v>
+      </c>
+      <c r="AE105">
+        <v>3.3</v>
+      </c>
+      <c r="AF105">
+        <v>1.02</v>
+      </c>
+      <c r="AG105">
+        <v>9</v>
+      </c>
+      <c r="AH105">
+        <v>1.25</v>
+      </c>
+      <c r="AI105">
+        <v>3.55</v>
+      </c>
+      <c r="AJ105">
+        <v>1.85</v>
+      </c>
+      <c r="AK105">
+        <v>1.85</v>
+      </c>
+      <c r="AL105">
+        <v>1.83</v>
+      </c>
+      <c r="AM105">
+        <v>1.83</v>
+      </c>
+      <c r="AN105">
+        <v>1.19</v>
+      </c>
+      <c r="AO105">
+        <v>1.26</v>
+      </c>
+      <c r="AP105">
+        <v>1.94</v>
+      </c>
+      <c r="AQ105">
+        <v>2</v>
+      </c>
+      <c r="AR105">
+        <v>0.8</v>
+      </c>
+      <c r="AS105">
+        <v>2.14</v>
+      </c>
+      <c r="AT105">
+        <v>0.67</v>
+      </c>
+      <c r="AU105">
+        <v>1.5</v>
+      </c>
+      <c r="AV105">
+        <v>0.78</v>
+      </c>
+      <c r="AW105">
+        <v>2.28</v>
+      </c>
+      <c r="AX105">
+        <v>1.55</v>
+      </c>
+      <c r="AY105">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ105">
+        <v>2.88</v>
+      </c>
+      <c r="BA105">
+        <v>1.36</v>
+      </c>
+      <c r="BB105">
+        <v>1.67</v>
+      </c>
+      <c r="BC105">
+        <v>2.15</v>
+      </c>
+      <c r="BD105">
+        <v>2.95</v>
+      </c>
+      <c r="BE105">
+        <v>4.1</v>
+      </c>
+      <c r="BF105">
+        <v>8</v>
+      </c>
+      <c r="BG105">
+        <v>4</v>
+      </c>
+      <c r="BH105">
+        <v>4</v>
+      </c>
+      <c r="BI105">
+        <v>10</v>
+      </c>
+      <c r="BJ105">
+        <v>12</v>
+      </c>
+      <c r="BK105">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="218">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -511,6 +511,9 @@
     <t>['2', '5', '35', '81']</t>
   </si>
   <si>
+    <t>['18', '35', '44']</t>
+  </si>
+  <si>
     <t>['24']</t>
   </si>
   <si>
@@ -662,6 +665,9 @@
   </si>
   <si>
     <t>['43', '56', '69', '77']</t>
+  </si>
+  <si>
+    <t>['64', '85']</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1029,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK105"/>
+  <dimension ref="A1:BK106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1458,7 +1464,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q3">
         <v>9</v>
@@ -1548,7 +1554,7 @@
         <v>2.57</v>
       </c>
       <c r="AT3">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1649,7 +1655,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1840,7 +1846,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -2031,7 +2037,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2222,7 +2228,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2604,7 +2610,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2795,7 +2801,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2986,7 +2992,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3177,7 +3183,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -3837,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT15">
         <v>0.14</v>
@@ -3941,7 +3947,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -4514,7 +4520,7 @@
         <v>97</v>
       </c>
       <c r="P19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4705,7 +4711,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -4795,7 +4801,7 @@
         <v>1.83</v>
       </c>
       <c r="AT20">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU20">
         <v>1.56</v>
@@ -5087,7 +5093,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -5278,7 +5284,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5851,7 +5857,7 @@
         <v>103</v>
       </c>
       <c r="P26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -5938,7 +5944,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT26">
         <v>2.17</v>
@@ -6042,7 +6048,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6233,7 +6239,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6514,7 +6520,7 @@
         <v>2.57</v>
       </c>
       <c r="AT29">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU29">
         <v>1.35</v>
@@ -6615,7 +6621,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -7188,7 +7194,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7761,7 +7767,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8334,7 +8340,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -8525,7 +8531,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q40">
         <v>8</v>
@@ -8716,7 +8722,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9098,7 +9104,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9289,7 +9295,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9480,7 +9486,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q45">
         <v>7</v>
@@ -9952,7 +9958,7 @@
         <v>2.43</v>
       </c>
       <c r="AT47">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU47">
         <v>0.97</v>
@@ -10053,7 +10059,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q48">
         <v>6</v>
@@ -10244,7 +10250,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q49">
         <v>12</v>
@@ -10331,7 +10337,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT49">
         <v>0.43</v>
@@ -10435,7 +10441,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -11008,7 +11014,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11199,7 +11205,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11390,7 +11396,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q55">
         <v>8</v>
@@ -11772,7 +11778,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12154,7 +12160,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12345,7 +12351,7 @@
         <v>133</v>
       </c>
       <c r="P60" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -12536,7 +12542,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -12623,7 +12629,7 @@
         <v>1.5</v>
       </c>
       <c r="AS61">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT61">
         <v>1.86</v>
@@ -12727,7 +12733,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12918,7 +12924,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13008,7 +13014,7 @@
         <v>1.57</v>
       </c>
       <c r="AT63">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU63">
         <v>0.89</v>
@@ -13491,7 +13497,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -13769,7 +13775,7 @@
         <v>0</v>
       </c>
       <c r="AS67">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT67">
         <v>0.5</v>
@@ -13873,7 +13879,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q68">
         <v>1</v>
@@ -14064,7 +14070,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q69">
         <v>1</v>
@@ -14637,7 +14643,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -15109,7 +15115,7 @@
         <v>2.14</v>
       </c>
       <c r="AT74">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU74">
         <v>1.58</v>
@@ -15210,7 +15216,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15592,7 +15598,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -16165,7 +16171,7 @@
         <v>112</v>
       </c>
       <c r="P80" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16547,7 +16553,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -17120,7 +17126,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -17311,7 +17317,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -17398,7 +17404,7 @@
         <v>0.4</v>
       </c>
       <c r="AS86">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT86">
         <v>0.71</v>
@@ -17884,7 +17890,7 @@
         <v>151</v>
       </c>
       <c r="P89" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18075,7 +18081,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18356,7 +18362,7 @@
         <v>2</v>
       </c>
       <c r="AT91">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU91">
         <v>1.37</v>
@@ -18839,7 +18845,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19030,7 +19036,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q95">
         <v>1</v>
@@ -19794,7 +19800,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -19985,7 +19991,7 @@
         <v>160</v>
       </c>
       <c r="P100" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q100">
         <v>8</v>
@@ -20176,7 +20182,7 @@
         <v>161</v>
       </c>
       <c r="P101" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20749,7 +20755,7 @@
         <v>163</v>
       </c>
       <c r="P104" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q104">
         <v>2</v>
@@ -21082,6 +21088,197 @@
       </c>
       <c r="BK105">
         <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:63">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>5231254</v>
+      </c>
+      <c r="C106" t="s">
+        <v>63</v>
+      </c>
+      <c r="D106" t="s">
+        <v>64</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45086.875</v>
+      </c>
+      <c r="F106">
+        <v>14</v>
+      </c>
+      <c r="G106" t="s">
+        <v>78</v>
+      </c>
+      <c r="H106" t="s">
+        <v>77</v>
+      </c>
+      <c r="I106">
+        <v>3</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>3</v>
+      </c>
+      <c r="L106">
+        <v>3</v>
+      </c>
+      <c r="M106">
+        <v>2</v>
+      </c>
+      <c r="N106">
+        <v>5</v>
+      </c>
+      <c r="O106" t="s">
+        <v>165</v>
+      </c>
+      <c r="P106" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q106">
+        <v>4</v>
+      </c>
+      <c r="R106">
+        <v>10</v>
+      </c>
+      <c r="S106">
+        <v>14</v>
+      </c>
+      <c r="T106">
+        <v>1.94</v>
+      </c>
+      <c r="U106">
+        <v>2.32</v>
+      </c>
+      <c r="V106">
+        <v>6.3</v>
+      </c>
+      <c r="W106">
+        <v>1.35</v>
+      </c>
+      <c r="X106">
+        <v>3.04</v>
+      </c>
+      <c r="Y106">
+        <v>2.65</v>
+      </c>
+      <c r="Z106">
+        <v>1.45</v>
+      </c>
+      <c r="AA106">
+        <v>6.45</v>
+      </c>
+      <c r="AB106">
+        <v>1.09</v>
+      </c>
+      <c r="AC106">
+        <v>1.4</v>
+      </c>
+      <c r="AD106">
+        <v>4</v>
+      </c>
+      <c r="AE106">
+        <v>7.5</v>
+      </c>
+      <c r="AF106">
+        <v>1.04</v>
+      </c>
+      <c r="AG106">
+        <v>10.5</v>
+      </c>
+      <c r="AH106">
+        <v>1.25</v>
+      </c>
+      <c r="AI106">
+        <v>3.75</v>
+      </c>
+      <c r="AJ106">
+        <v>1.8</v>
+      </c>
+      <c r="AK106">
+        <v>1.93</v>
+      </c>
+      <c r="AL106">
+        <v>1.96</v>
+      </c>
+      <c r="AM106">
+        <v>1.8</v>
+      </c>
+      <c r="AN106">
+        <v>1.07</v>
+      </c>
+      <c r="AO106">
+        <v>1.18</v>
+      </c>
+      <c r="AP106">
+        <v>2.66</v>
+      </c>
+      <c r="AQ106">
+        <v>1.67</v>
+      </c>
+      <c r="AR106">
+        <v>0.14</v>
+      </c>
+      <c r="AS106">
+        <v>1.86</v>
+      </c>
+      <c r="AT106">
+        <v>0.13</v>
+      </c>
+      <c r="AU106">
+        <v>1.54</v>
+      </c>
+      <c r="AV106">
+        <v>1.06</v>
+      </c>
+      <c r="AW106">
+        <v>2.6</v>
+      </c>
+      <c r="AX106">
+        <v>1.4</v>
+      </c>
+      <c r="AY106">
+        <v>9.4</v>
+      </c>
+      <c r="AZ106">
+        <v>3.6</v>
+      </c>
+      <c r="BA106">
+        <v>1.23</v>
+      </c>
+      <c r="BB106">
+        <v>1.43</v>
+      </c>
+      <c r="BC106">
+        <v>1.77</v>
+      </c>
+      <c r="BD106">
+        <v>2.2</v>
+      </c>
+      <c r="BE106">
+        <v>2.8</v>
+      </c>
+      <c r="BF106">
+        <v>9</v>
+      </c>
+      <c r="BG106">
+        <v>5</v>
+      </c>
+      <c r="BH106">
+        <v>4</v>
+      </c>
+      <c r="BI106">
+        <v>5</v>
+      </c>
+      <c r="BJ106">
+        <v>13</v>
+      </c>
+      <c r="BK106">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="219">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -512,6 +512,9 @@
   </si>
   <si>
     <t>['18', '35', '44']</t>
+  </si>
+  <si>
+    <t>['40', '79', '87']</t>
   </si>
   <si>
     <t>['24']</t>
@@ -1029,7 +1032,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK106"/>
+  <dimension ref="A1:BK109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1464,7 +1467,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q3">
         <v>9</v>
@@ -1655,7 +1658,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1745,7 +1748,7 @@
         <v>1.83</v>
       </c>
       <c r="AT4">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1846,7 +1849,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -2037,7 +2040,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2228,7 +2231,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2610,7 +2613,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2801,7 +2804,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2888,10 +2891,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT10">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2992,7 +2995,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3079,10 +3082,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT11">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3183,7 +3186,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -3270,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT12">
         <v>1</v>
@@ -3947,7 +3950,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -4520,7 +4523,7 @@
         <v>97</v>
       </c>
       <c r="P19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4711,7 +4714,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5093,7 +5096,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -5284,7 +5287,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5371,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT23">
         <v>1.86</v>
@@ -5565,7 +5568,7 @@
         <v>1.33</v>
       </c>
       <c r="AT24">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU24">
         <v>1.81</v>
@@ -5756,7 +5759,7 @@
         <v>2.14</v>
       </c>
       <c r="AT25">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AU25">
         <v>1.84</v>
@@ -5857,7 +5860,7 @@
         <v>103</v>
       </c>
       <c r="P26" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -6048,7 +6051,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6135,7 +6138,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT27">
         <v>0.5</v>
@@ -6239,7 +6242,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6326,7 +6329,7 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT28">
         <v>1</v>
@@ -6621,7 +6624,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -6902,7 +6905,7 @@
         <v>2</v>
       </c>
       <c r="AT31">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU31">
         <v>1.75</v>
@@ -7194,7 +7197,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7475,7 +7478,7 @@
         <v>3</v>
       </c>
       <c r="AT34">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU34">
         <v>1.48</v>
@@ -7666,7 +7669,7 @@
         <v>1.57</v>
       </c>
       <c r="AT35">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU35">
         <v>1.5</v>
@@ -7767,7 +7770,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7854,7 +7857,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT36">
         <v>1.14</v>
@@ -8340,7 +8343,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -8531,7 +8534,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q40">
         <v>8</v>
@@ -8722,7 +8725,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -8812,7 +8815,7 @@
         <v>2.57</v>
       </c>
       <c r="AT41">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AU41">
         <v>1.21</v>
@@ -9000,7 +9003,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT42">
         <v>2.17</v>
@@ -9104,7 +9107,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9295,7 +9298,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9486,7 +9489,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q45">
         <v>7</v>
@@ -9573,7 +9576,7 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT45">
         <v>0.83</v>
@@ -10059,7 +10062,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q48">
         <v>6</v>
@@ -10250,7 +10253,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q49">
         <v>12</v>
@@ -10441,7 +10444,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10913,7 +10916,7 @@
         <v>2.57</v>
       </c>
       <c r="AT52">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU52">
         <v>1.9</v>
@@ -11014,7 +11017,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11205,7 +11208,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11292,7 +11295,7 @@
         <v>0</v>
       </c>
       <c r="AS54">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT54">
         <v>0.29</v>
@@ -11396,7 +11399,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q55">
         <v>8</v>
@@ -11486,7 +11489,7 @@
         <v>2.57</v>
       </c>
       <c r="AT55">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU55">
         <v>1.48</v>
@@ -11778,7 +11781,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -11868,7 +11871,7 @@
         <v>2.14</v>
       </c>
       <c r="AT57">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AU57">
         <v>1.56</v>
@@ -12160,7 +12163,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12351,7 +12354,7 @@
         <v>133</v>
       </c>
       <c r="P60" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -12542,7 +12545,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -12733,7 +12736,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12924,7 +12927,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13202,7 +13205,7 @@
         <v>0.67</v>
       </c>
       <c r="AS64">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT64">
         <v>0.43</v>
@@ -13497,7 +13500,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -13587,7 +13590,7 @@
         <v>3</v>
       </c>
       <c r="AT66">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU66">
         <v>1.4</v>
@@ -13778,7 +13781,7 @@
         <v>1.86</v>
       </c>
       <c r="AT67">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU67">
         <v>1.29</v>
@@ -13879,7 +13882,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q68">
         <v>1</v>
@@ -14070,7 +14073,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q69">
         <v>1</v>
@@ -14643,7 +14646,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -14921,7 +14924,7 @@
         <v>0</v>
       </c>
       <c r="AS73">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT73">
         <v>0.67</v>
@@ -15216,7 +15219,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15303,7 +15306,7 @@
         <v>0.75</v>
       </c>
       <c r="AS75">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT75">
         <v>0.43</v>
@@ -15598,7 +15601,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -15685,7 +15688,7 @@
         <v>1</v>
       </c>
       <c r="AS77">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT77">
         <v>0.83</v>
@@ -16171,7 +16174,7 @@
         <v>112</v>
       </c>
       <c r="P80" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16452,7 +16455,7 @@
         <v>2</v>
       </c>
       <c r="AT81">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AU81">
         <v>1.2</v>
@@ -16553,7 +16556,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -16640,10 +16643,10 @@
         <v>0.2</v>
       </c>
       <c r="AS82">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT82">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU82">
         <v>2.13</v>
@@ -17126,7 +17129,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -17317,7 +17320,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -17890,7 +17893,7 @@
         <v>151</v>
       </c>
       <c r="P89" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18081,7 +18084,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18168,7 +18171,7 @@
         <v>0.8</v>
       </c>
       <c r="AS90">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT90">
         <v>1.14</v>
@@ -18553,7 +18556,7 @@
         <v>3</v>
       </c>
       <c r="AT92">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AU92">
         <v>1.38</v>
@@ -18845,7 +18848,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -18935,7 +18938,7 @@
         <v>2.14</v>
       </c>
       <c r="AT94">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU94">
         <v>1.65</v>
@@ -19036,7 +19039,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q95">
         <v>1</v>
@@ -19314,7 +19317,7 @@
         <v>1</v>
       </c>
       <c r="AS96">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT96">
         <v>0.83</v>
@@ -19800,7 +19803,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -19887,7 +19890,7 @@
         <v>0.33</v>
       </c>
       <c r="AS99">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT99">
         <v>0.29</v>
@@ -19991,7 +19994,7 @@
         <v>160</v>
       </c>
       <c r="P100" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q100">
         <v>8</v>
@@ -20182,7 +20185,7 @@
         <v>161</v>
       </c>
       <c r="P101" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20755,7 +20758,7 @@
         <v>163</v>
       </c>
       <c r="P104" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q104">
         <v>2</v>
@@ -21137,7 +21140,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -21278,6 +21281,579 @@
         <v>13</v>
       </c>
       <c r="BK106">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:63">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>5231253</v>
+      </c>
+      <c r="C107" t="s">
+        <v>63</v>
+      </c>
+      <c r="D107" t="s">
+        <v>64</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45087.625</v>
+      </c>
+      <c r="F107">
+        <v>14</v>
+      </c>
+      <c r="G107" t="s">
+        <v>73</v>
+      </c>
+      <c r="H107" t="s">
+        <v>69</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>1</v>
+      </c>
+      <c r="O107" t="s">
+        <v>138</v>
+      </c>
+      <c r="P107" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q107">
+        <v>3</v>
+      </c>
+      <c r="R107">
+        <v>3</v>
+      </c>
+      <c r="S107">
+        <v>6</v>
+      </c>
+      <c r="T107">
+        <v>3.5</v>
+      </c>
+      <c r="U107">
+        <v>2.22</v>
+      </c>
+      <c r="V107">
+        <v>2.88</v>
+      </c>
+      <c r="W107">
+        <v>1.38</v>
+      </c>
+      <c r="X107">
+        <v>2.9</v>
+      </c>
+      <c r="Y107">
+        <v>2.7</v>
+      </c>
+      <c r="Z107">
+        <v>1.41</v>
+      </c>
+      <c r="AA107">
+        <v>6.95</v>
+      </c>
+      <c r="AB107">
+        <v>1.08</v>
+      </c>
+      <c r="AC107">
+        <v>2.88</v>
+      </c>
+      <c r="AD107">
+        <v>3.4</v>
+      </c>
+      <c r="AE107">
+        <v>2.2</v>
+      </c>
+      <c r="AF107">
+        <v>1.05</v>
+      </c>
+      <c r="AG107">
+        <v>9.25</v>
+      </c>
+      <c r="AH107">
+        <v>1.28</v>
+      </c>
+      <c r="AI107">
+        <v>3.4</v>
+      </c>
+      <c r="AJ107">
+        <v>2.03</v>
+      </c>
+      <c r="AK107">
+        <v>1.73</v>
+      </c>
+      <c r="AL107">
+        <v>1.7</v>
+      </c>
+      <c r="AM107">
+        <v>2.1</v>
+      </c>
+      <c r="AN107">
+        <v>1.55</v>
+      </c>
+      <c r="AO107">
+        <v>1.3</v>
+      </c>
+      <c r="AP107">
+        <v>1.37</v>
+      </c>
+      <c r="AQ107">
+        <v>1.33</v>
+      </c>
+      <c r="AR107">
+        <v>0.17</v>
+      </c>
+      <c r="AS107">
+        <v>1.57</v>
+      </c>
+      <c r="AT107">
+        <v>0.14</v>
+      </c>
+      <c r="AU107">
+        <v>1.19</v>
+      </c>
+      <c r="AV107">
+        <v>1.1</v>
+      </c>
+      <c r="AW107">
+        <v>2.29</v>
+      </c>
+      <c r="AX107">
+        <v>1.95</v>
+      </c>
+      <c r="AY107">
+        <v>8</v>
+      </c>
+      <c r="AZ107">
+        <v>2.14</v>
+      </c>
+      <c r="BA107">
+        <v>1.53</v>
+      </c>
+      <c r="BB107">
+        <v>1.91</v>
+      </c>
+      <c r="BC107">
+        <v>2.4</v>
+      </c>
+      <c r="BD107">
+        <v>3.34</v>
+      </c>
+      <c r="BE107">
+        <v>4.7</v>
+      </c>
+      <c r="BF107">
+        <v>6</v>
+      </c>
+      <c r="BG107">
+        <v>0</v>
+      </c>
+      <c r="BH107">
+        <v>4</v>
+      </c>
+      <c r="BI107">
+        <v>7</v>
+      </c>
+      <c r="BJ107">
+        <v>10</v>
+      </c>
+      <c r="BK107">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:63">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>5231252</v>
+      </c>
+      <c r="C108" t="s">
+        <v>63</v>
+      </c>
+      <c r="D108" t="s">
+        <v>64</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45087.72916666666</v>
+      </c>
+      <c r="F108">
+        <v>14</v>
+      </c>
+      <c r="G108" t="s">
+        <v>75</v>
+      </c>
+      <c r="H108" t="s">
+        <v>80</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108" t="s">
+        <v>86</v>
+      </c>
+      <c r="P108" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q108">
+        <v>12</v>
+      </c>
+      <c r="R108">
+        <v>1</v>
+      </c>
+      <c r="S108">
+        <v>13</v>
+      </c>
+      <c r="T108">
+        <v>1.71</v>
+      </c>
+      <c r="U108">
+        <v>2.52</v>
+      </c>
+      <c r="V108">
+        <v>8.1</v>
+      </c>
+      <c r="W108">
+        <v>1.31</v>
+      </c>
+      <c r="X108">
+        <v>3.28</v>
+      </c>
+      <c r="Y108">
+        <v>2.48</v>
+      </c>
+      <c r="Z108">
+        <v>1.5</v>
+      </c>
+      <c r="AA108">
+        <v>5.85</v>
+      </c>
+      <c r="AB108">
+        <v>1.11</v>
+      </c>
+      <c r="AC108">
+        <v>1.22</v>
+      </c>
+      <c r="AD108">
+        <v>5.5</v>
+      </c>
+      <c r="AE108">
+        <v>10</v>
+      </c>
+      <c r="AF108">
+        <v>1.03</v>
+      </c>
+      <c r="AG108">
+        <v>13</v>
+      </c>
+      <c r="AH108">
+        <v>1.2</v>
+      </c>
+      <c r="AI108">
+        <v>4.1</v>
+      </c>
+      <c r="AJ108">
+        <v>1.67</v>
+      </c>
+      <c r="AK108">
+        <v>2.1</v>
+      </c>
+      <c r="AL108">
+        <v>1.95</v>
+      </c>
+      <c r="AM108">
+        <v>1.78</v>
+      </c>
+      <c r="AN108">
+        <v>1.03</v>
+      </c>
+      <c r="AO108">
+        <v>1.1</v>
+      </c>
+      <c r="AP108">
+        <v>3.1</v>
+      </c>
+      <c r="AQ108">
+        <v>1.83</v>
+      </c>
+      <c r="AR108">
+        <v>0.33</v>
+      </c>
+      <c r="AS108">
+        <v>1.71</v>
+      </c>
+      <c r="AT108">
+        <v>0.43</v>
+      </c>
+      <c r="AU108">
+        <v>1.87</v>
+      </c>
+      <c r="AV108">
+        <v>0.9</v>
+      </c>
+      <c r="AW108">
+        <v>2.77</v>
+      </c>
+      <c r="AX108">
+        <v>1.13</v>
+      </c>
+      <c r="AY108">
+        <v>12.75</v>
+      </c>
+      <c r="AZ108">
+        <v>6.9</v>
+      </c>
+      <c r="BA108">
+        <v>1.28</v>
+      </c>
+      <c r="BB108">
+        <v>1.58</v>
+      </c>
+      <c r="BC108">
+        <v>1.95</v>
+      </c>
+      <c r="BD108">
+        <v>2.45</v>
+      </c>
+      <c r="BE108">
+        <v>3.34</v>
+      </c>
+      <c r="BF108">
+        <v>5</v>
+      </c>
+      <c r="BG108">
+        <v>2</v>
+      </c>
+      <c r="BH108">
+        <v>5</v>
+      </c>
+      <c r="BI108">
+        <v>3</v>
+      </c>
+      <c r="BJ108">
+        <v>10</v>
+      </c>
+      <c r="BK108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:63">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>5231255</v>
+      </c>
+      <c r="C109" t="s">
+        <v>63</v>
+      </c>
+      <c r="D109" t="s">
+        <v>64</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45087.83333333334</v>
+      </c>
+      <c r="F109">
+        <v>14</v>
+      </c>
+      <c r="G109" t="s">
+        <v>74</v>
+      </c>
+      <c r="H109" t="s">
+        <v>65</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>2</v>
+      </c>
+      <c r="L109">
+        <v>3</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109">
+        <v>4</v>
+      </c>
+      <c r="O109" t="s">
+        <v>166</v>
+      </c>
+      <c r="P109" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q109">
+        <v>4</v>
+      </c>
+      <c r="R109">
+        <v>6</v>
+      </c>
+      <c r="S109">
+        <v>10</v>
+      </c>
+      <c r="T109">
+        <v>2.17</v>
+      </c>
+      <c r="U109">
+        <v>2.19</v>
+      </c>
+      <c r="V109">
+        <v>5.35</v>
+      </c>
+      <c r="W109">
+        <v>1.38</v>
+      </c>
+      <c r="X109">
+        <v>2.9</v>
+      </c>
+      <c r="Y109">
+        <v>2.78</v>
+      </c>
+      <c r="Z109">
+        <v>1.41</v>
+      </c>
+      <c r="AA109">
+        <v>6.95</v>
+      </c>
+      <c r="AB109">
+        <v>1.08</v>
+      </c>
+      <c r="AC109">
+        <v>1.6</v>
+      </c>
+      <c r="AD109">
+        <v>3.6</v>
+      </c>
+      <c r="AE109">
+        <v>5</v>
+      </c>
+      <c r="AF109">
+        <v>1.06</v>
+      </c>
+      <c r="AG109">
+        <v>9</v>
+      </c>
+      <c r="AH109">
+        <v>1.28</v>
+      </c>
+      <c r="AI109">
+        <v>3.5</v>
+      </c>
+      <c r="AJ109">
+        <v>1.8</v>
+      </c>
+      <c r="AK109">
+        <v>1.8</v>
+      </c>
+      <c r="AL109">
+        <v>1.83</v>
+      </c>
+      <c r="AM109">
+        <v>1.9</v>
+      </c>
+      <c r="AN109">
+        <v>1.12</v>
+      </c>
+      <c r="AO109">
+        <v>1.2</v>
+      </c>
+      <c r="AP109">
+        <v>2.05</v>
+      </c>
+      <c r="AQ109">
+        <v>2</v>
+      </c>
+      <c r="AR109">
+        <v>0.5</v>
+      </c>
+      <c r="AS109">
+        <v>2.14</v>
+      </c>
+      <c r="AT109">
+        <v>0.43</v>
+      </c>
+      <c r="AU109">
+        <v>1.7</v>
+      </c>
+      <c r="AV109">
+        <v>1.16</v>
+      </c>
+      <c r="AW109">
+        <v>2.86</v>
+      </c>
+      <c r="AX109">
+        <v>1.46</v>
+      </c>
+      <c r="AY109">
+        <v>9.4</v>
+      </c>
+      <c r="AZ109">
+        <v>3.18</v>
+      </c>
+      <c r="BA109">
+        <v>1.2</v>
+      </c>
+      <c r="BB109">
+        <v>1.5</v>
+      </c>
+      <c r="BC109">
+        <v>1.71</v>
+      </c>
+      <c r="BD109">
+        <v>2.11</v>
+      </c>
+      <c r="BE109">
+        <v>2.79</v>
+      </c>
+      <c r="BF109">
+        <v>7</v>
+      </c>
+      <c r="BG109">
+        <v>5</v>
+      </c>
+      <c r="BH109">
+        <v>11</v>
+      </c>
+      <c r="BI109">
+        <v>5</v>
+      </c>
+      <c r="BJ109">
+        <v>18</v>
+      </c>
+      <c r="BK109">
         <v>10</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="223">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -517,6 +517,12 @@
     <t>['40', '79', '87']</t>
   </si>
   <si>
+    <t>['38', '58']</t>
+  </si>
+  <si>
+    <t>['46']</t>
+  </si>
+  <si>
     <t>['24']</t>
   </si>
   <si>
@@ -671,6 +677,12 @@
   </si>
   <si>
     <t>['64', '85']</t>
+  </si>
+  <si>
+    <t>['13', '21']</t>
+  </si>
+  <si>
+    <t>['42', '55']</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1044,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK109"/>
+  <dimension ref="A1:BK112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1467,7 +1479,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q3">
         <v>9</v>
@@ -1658,7 +1670,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1745,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT4">
         <v>0.43</v>
@@ -1849,7 +1861,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -1939,7 +1951,7 @@
         <v>1.57</v>
       </c>
       <c r="AT5">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2040,7 +2052,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2231,7 +2243,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2613,7 +2625,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2700,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT9">
         <v>0.43</v>
@@ -2804,7 +2816,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2995,7 +3007,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3186,7 +3198,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -3276,7 +3288,7 @@
         <v>1.71</v>
       </c>
       <c r="AT12">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3950,7 +3962,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -4037,7 +4049,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AT16">
         <v>0.71</v>
@@ -4231,7 +4243,7 @@
         <v>1.57</v>
       </c>
       <c r="AT17">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4523,7 +4535,7 @@
         <v>97</v>
       </c>
       <c r="P19" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4610,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT19">
         <v>0.29</v>
@@ -4714,7 +4726,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -4801,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT20">
         <v>0.13</v>
@@ -4995,7 +5007,7 @@
         <v>2.57</v>
       </c>
       <c r="AT21">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU21">
         <v>1.57</v>
@@ -5096,7 +5108,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -5287,7 +5299,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5860,7 +5872,7 @@
         <v>103</v>
       </c>
       <c r="P26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -5950,7 +5962,7 @@
         <v>1.86</v>
       </c>
       <c r="AT26">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU26">
         <v>1.41</v>
@@ -6051,7 +6063,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6242,7 +6254,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6332,7 +6344,7 @@
         <v>1.57</v>
       </c>
       <c r="AT28">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU28">
         <v>1.23</v>
@@ -6624,7 +6636,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -6711,7 +6723,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT30">
         <v>0.71</v>
@@ -7197,7 +7209,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7284,7 +7296,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AT33">
         <v>0.14</v>
@@ -7475,7 +7487,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AT34">
         <v>0.43</v>
@@ -7770,7 +7782,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8343,7 +8355,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -8430,7 +8442,7 @@
         <v>1.5</v>
       </c>
       <c r="AS39">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT39">
         <v>1.86</v>
@@ -8534,7 +8546,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q40">
         <v>8</v>
@@ -8725,7 +8737,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9006,7 +9018,7 @@
         <v>1.57</v>
       </c>
       <c r="AT42">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU42">
         <v>1.13</v>
@@ -9107,7 +9119,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9197,7 +9209,7 @@
         <v>2</v>
       </c>
       <c r="AT43">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU43">
         <v>1.59</v>
@@ -9298,7 +9310,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9489,7 +9501,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q45">
         <v>7</v>
@@ -9579,7 +9591,7 @@
         <v>1.71</v>
       </c>
       <c r="AT45">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU45">
         <v>1.76</v>
@@ -9958,7 +9970,7 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT47">
         <v>0.13</v>
@@ -10062,7 +10074,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q48">
         <v>6</v>
@@ -10253,7 +10265,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q49">
         <v>12</v>
@@ -10444,7 +10456,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10531,7 +10543,7 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT50">
         <v>0.67</v>
@@ -11017,7 +11029,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11104,7 +11116,7 @@
         <v>2</v>
       </c>
       <c r="AS53">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AT53">
         <v>1.86</v>
@@ -11208,7 +11220,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11399,7 +11411,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q55">
         <v>8</v>
@@ -11781,7 +11793,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12163,7 +12175,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12253,7 +12265,7 @@
         <v>1.33</v>
       </c>
       <c r="AT59">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU59">
         <v>1.36</v>
@@ -12354,7 +12366,7 @@
         <v>133</v>
       </c>
       <c r="P60" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -12545,7 +12557,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -12736,7 +12748,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12826,7 +12838,7 @@
         <v>2</v>
       </c>
       <c r="AT62">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU62">
         <v>1.27</v>
@@ -12927,7 +12939,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13396,7 +13408,7 @@
         <v>2</v>
       </c>
       <c r="AS65">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT65">
         <v>1.71</v>
@@ -13500,7 +13512,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -13587,7 +13599,7 @@
         <v>0.25</v>
       </c>
       <c r="AS66">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AT66">
         <v>0.14</v>
@@ -13882,7 +13894,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q68">
         <v>1</v>
@@ -13969,7 +13981,7 @@
         <v>0</v>
       </c>
       <c r="AS68">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT68">
         <v>0.29</v>
@@ -14073,7 +14085,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q69">
         <v>1</v>
@@ -14163,7 +14175,7 @@
         <v>1.57</v>
       </c>
       <c r="AT69">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU69">
         <v>1.33</v>
@@ -14646,7 +14658,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -14736,7 +14748,7 @@
         <v>2.57</v>
       </c>
       <c r="AT72">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU72">
         <v>1.68</v>
@@ -15219,7 +15231,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15601,7 +15613,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -15691,7 +15703,7 @@
         <v>1.57</v>
       </c>
       <c r="AT77">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU77">
         <v>1</v>
@@ -15879,7 +15891,7 @@
         <v>0.75</v>
       </c>
       <c r="AS78">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT78">
         <v>1.14</v>
@@ -16174,7 +16186,7 @@
         <v>112</v>
       </c>
       <c r="P80" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16556,7 +16568,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -17028,7 +17040,7 @@
         <v>1.83</v>
       </c>
       <c r="AT84">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU84">
         <v>1.2</v>
@@ -17129,7 +17141,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -17219,7 +17231,7 @@
         <v>2.14</v>
       </c>
       <c r="AT85">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU85">
         <v>1.61</v>
@@ -17320,7 +17332,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -17893,7 +17905,7 @@
         <v>151</v>
       </c>
       <c r="P89" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -17980,7 +17992,7 @@
         <v>1.8</v>
       </c>
       <c r="AS89">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT89">
         <v>1.71</v>
@@ -18084,7 +18096,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18553,7 +18565,7 @@
         <v>0.4</v>
       </c>
       <c r="AS92">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AT92">
         <v>0.43</v>
@@ -18744,7 +18756,7 @@
         <v>0.6</v>
       </c>
       <c r="AS93">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT93">
         <v>0.5</v>
@@ -18848,7 +18860,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19039,7 +19051,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q95">
         <v>1</v>
@@ -19320,7 +19332,7 @@
         <v>2.14</v>
       </c>
       <c r="AT96">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU96">
         <v>1.57</v>
@@ -19702,7 +19714,7 @@
         <v>2.57</v>
       </c>
       <c r="AT98">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU98">
         <v>1.72</v>
@@ -19803,7 +19815,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -19994,7 +20006,7 @@
         <v>160</v>
       </c>
       <c r="P100" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q100">
         <v>8</v>
@@ -20185,7 +20197,7 @@
         <v>161</v>
       </c>
       <c r="P101" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20758,7 +20770,7 @@
         <v>163</v>
       </c>
       <c r="P104" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q104">
         <v>2</v>
@@ -21140,7 +21152,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -21855,6 +21867,579 @@
       </c>
       <c r="BK109">
         <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:63">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>5231250</v>
+      </c>
+      <c r="C110" t="s">
+        <v>63</v>
+      </c>
+      <c r="D110" t="s">
+        <v>64</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45088.625</v>
+      </c>
+      <c r="F110">
+        <v>14</v>
+      </c>
+      <c r="G110" t="s">
+        <v>72</v>
+      </c>
+      <c r="H110" t="s">
+        <v>70</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <v>2</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>2</v>
+      </c>
+      <c r="O110" t="s">
+        <v>167</v>
+      </c>
+      <c r="P110" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q110">
+        <v>5</v>
+      </c>
+      <c r="R110">
+        <v>3</v>
+      </c>
+      <c r="S110">
+        <v>8</v>
+      </c>
+      <c r="T110">
+        <v>2.9</v>
+      </c>
+      <c r="U110">
+        <v>2.1</v>
+      </c>
+      <c r="V110">
+        <v>3.3</v>
+      </c>
+      <c r="W110">
+        <v>1.38</v>
+      </c>
+      <c r="X110">
+        <v>2.75</v>
+      </c>
+      <c r="Y110">
+        <v>2.7</v>
+      </c>
+      <c r="Z110">
+        <v>1.4</v>
+      </c>
+      <c r="AA110">
+        <v>7</v>
+      </c>
+      <c r="AB110">
+        <v>1.08</v>
+      </c>
+      <c r="AC110">
+        <v>2.35</v>
+      </c>
+      <c r="AD110">
+        <v>3.4</v>
+      </c>
+      <c r="AE110">
+        <v>2.85</v>
+      </c>
+      <c r="AF110">
+        <v>1.05</v>
+      </c>
+      <c r="AG110">
+        <v>9.25</v>
+      </c>
+      <c r="AH110">
+        <v>1.28</v>
+      </c>
+      <c r="AI110">
+        <v>3.3</v>
+      </c>
+      <c r="AJ110">
+        <v>1.8</v>
+      </c>
+      <c r="AK110">
+        <v>1.83</v>
+      </c>
+      <c r="AL110">
+        <v>1.69</v>
+      </c>
+      <c r="AM110">
+        <v>2.11</v>
+      </c>
+      <c r="AN110">
+        <v>1.38</v>
+      </c>
+      <c r="AO110">
+        <v>1.28</v>
+      </c>
+      <c r="AP110">
+        <v>1.54</v>
+      </c>
+      <c r="AQ110">
+        <v>2.43</v>
+      </c>
+      <c r="AR110">
+        <v>1</v>
+      </c>
+      <c r="AS110">
+        <v>2.5</v>
+      </c>
+      <c r="AT110">
+        <v>0.86</v>
+      </c>
+      <c r="AU110">
+        <v>1.23</v>
+      </c>
+      <c r="AV110">
+        <v>1.01</v>
+      </c>
+      <c r="AW110">
+        <v>2.24</v>
+      </c>
+      <c r="AX110">
+        <v>1.84</v>
+      </c>
+      <c r="AY110">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ110">
+        <v>2.24</v>
+      </c>
+      <c r="BA110">
+        <v>1.28</v>
+      </c>
+      <c r="BB110">
+        <v>1.58</v>
+      </c>
+      <c r="BC110">
+        <v>1.95</v>
+      </c>
+      <c r="BD110">
+        <v>2.45</v>
+      </c>
+      <c r="BE110">
+        <v>3.34</v>
+      </c>
+      <c r="BF110">
+        <v>0</v>
+      </c>
+      <c r="BG110">
+        <v>4</v>
+      </c>
+      <c r="BH110">
+        <v>5</v>
+      </c>
+      <c r="BI110">
+        <v>4</v>
+      </c>
+      <c r="BJ110">
+        <v>5</v>
+      </c>
+      <c r="BK110">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:63">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>5231249</v>
+      </c>
+      <c r="C111" t="s">
+        <v>63</v>
+      </c>
+      <c r="D111" t="s">
+        <v>64</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45088.72916666666</v>
+      </c>
+      <c r="F111">
+        <v>14</v>
+      </c>
+      <c r="G111" t="s">
+        <v>67</v>
+      </c>
+      <c r="H111" t="s">
+        <v>76</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>2</v>
+      </c>
+      <c r="K111">
+        <v>2</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111">
+        <v>2</v>
+      </c>
+      <c r="N111">
+        <v>3</v>
+      </c>
+      <c r="O111" t="s">
+        <v>168</v>
+      </c>
+      <c r="P111" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q111">
+        <v>8</v>
+      </c>
+      <c r="R111">
+        <v>2</v>
+      </c>
+      <c r="S111">
+        <v>10</v>
+      </c>
+      <c r="T111">
+        <v>3.7</v>
+      </c>
+      <c r="U111">
+        <v>2.1</v>
+      </c>
+      <c r="V111">
+        <v>2.65</v>
+      </c>
+      <c r="W111">
+        <v>1.36</v>
+      </c>
+      <c r="X111">
+        <v>2.85</v>
+      </c>
+      <c r="Y111">
+        <v>2.65</v>
+      </c>
+      <c r="Z111">
+        <v>1.41</v>
+      </c>
+      <c r="AA111">
+        <v>6.75</v>
+      </c>
+      <c r="AB111">
+        <v>1.09</v>
+      </c>
+      <c r="AC111">
+        <v>3.25</v>
+      </c>
+      <c r="AD111">
+        <v>3.65</v>
+      </c>
+      <c r="AE111">
+        <v>2.06</v>
+      </c>
+      <c r="AF111">
+        <v>1.05</v>
+      </c>
+      <c r="AG111">
+        <v>9.5</v>
+      </c>
+      <c r="AH111">
+        <v>1.28</v>
+      </c>
+      <c r="AI111">
+        <v>3.3</v>
+      </c>
+      <c r="AJ111">
+        <v>1.83</v>
+      </c>
+      <c r="AK111">
+        <v>1.8</v>
+      </c>
+      <c r="AL111">
+        <v>1.73</v>
+      </c>
+      <c r="AM111">
+        <v>1.95</v>
+      </c>
+      <c r="AN111">
+        <v>1.7</v>
+      </c>
+      <c r="AO111">
+        <v>1.29</v>
+      </c>
+      <c r="AP111">
+        <v>1.32</v>
+      </c>
+      <c r="AQ111">
+        <v>1.83</v>
+      </c>
+      <c r="AR111">
+        <v>0.83</v>
+      </c>
+      <c r="AS111">
+        <v>1.57</v>
+      </c>
+      <c r="AT111">
+        <v>1.14</v>
+      </c>
+      <c r="AU111">
+        <v>1.23</v>
+      </c>
+      <c r="AV111">
+        <v>1.38</v>
+      </c>
+      <c r="AW111">
+        <v>2.61</v>
+      </c>
+      <c r="AX111">
+        <v>2.92</v>
+      </c>
+      <c r="AY111">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ111">
+        <v>1.54</v>
+      </c>
+      <c r="BA111">
+        <v>1.36</v>
+      </c>
+      <c r="BB111">
+        <v>1.71</v>
+      </c>
+      <c r="BC111">
+        <v>2.14</v>
+      </c>
+      <c r="BD111">
+        <v>2.84</v>
+      </c>
+      <c r="BE111">
+        <v>4.4</v>
+      </c>
+      <c r="BF111">
+        <v>4</v>
+      </c>
+      <c r="BG111">
+        <v>3</v>
+      </c>
+      <c r="BH111">
+        <v>6</v>
+      </c>
+      <c r="BI111">
+        <v>2</v>
+      </c>
+      <c r="BJ111">
+        <v>10</v>
+      </c>
+      <c r="BK111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:63">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>5231251</v>
+      </c>
+      <c r="C112" t="s">
+        <v>63</v>
+      </c>
+      <c r="D112" t="s">
+        <v>64</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45088.83333333334</v>
+      </c>
+      <c r="F112">
+        <v>14</v>
+      </c>
+      <c r="G112" t="s">
+        <v>79</v>
+      </c>
+      <c r="H112" t="s">
+        <v>66</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>2</v>
+      </c>
+      <c r="N112">
+        <v>2</v>
+      </c>
+      <c r="O112" t="s">
+        <v>86</v>
+      </c>
+      <c r="P112" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q112">
+        <v>5</v>
+      </c>
+      <c r="R112">
+        <v>2</v>
+      </c>
+      <c r="S112">
+        <v>7</v>
+      </c>
+      <c r="T112">
+        <v>3.5</v>
+      </c>
+      <c r="U112">
+        <v>2.05</v>
+      </c>
+      <c r="V112">
+        <v>2.8</v>
+      </c>
+      <c r="W112">
+        <v>1.4</v>
+      </c>
+      <c r="X112">
+        <v>2.7</v>
+      </c>
+      <c r="Y112">
+        <v>2.85</v>
+      </c>
+      <c r="Z112">
+        <v>1.37</v>
+      </c>
+      <c r="AA112">
+        <v>7.5</v>
+      </c>
+      <c r="AB112">
+        <v>1.08</v>
+      </c>
+      <c r="AC112">
+        <v>2.87</v>
+      </c>
+      <c r="AD112">
+        <v>3.3</v>
+      </c>
+      <c r="AE112">
+        <v>2.18</v>
+      </c>
+      <c r="AF112">
+        <v>1.06</v>
+      </c>
+      <c r="AG112">
+        <v>8.75</v>
+      </c>
+      <c r="AH112">
+        <v>1.3</v>
+      </c>
+      <c r="AI112">
+        <v>3.2</v>
+      </c>
+      <c r="AJ112">
+        <v>1.87</v>
+      </c>
+      <c r="AK112">
+        <v>1.75</v>
+      </c>
+      <c r="AL112">
+        <v>1.75</v>
+      </c>
+      <c r="AM112">
+        <v>1.93</v>
+      </c>
+      <c r="AN112">
+        <v>1.62</v>
+      </c>
+      <c r="AO112">
+        <v>1.3</v>
+      </c>
+      <c r="AP112">
+        <v>1.35</v>
+      </c>
+      <c r="AQ112">
+        <v>3</v>
+      </c>
+      <c r="AR112">
+        <v>2.17</v>
+      </c>
+      <c r="AS112">
+        <v>2.57</v>
+      </c>
+      <c r="AT112">
+        <v>2.29</v>
+      </c>
+      <c r="AU112">
+        <v>1.47</v>
+      </c>
+      <c r="AV112">
+        <v>1.72</v>
+      </c>
+      <c r="AW112">
+        <v>3.19</v>
+      </c>
+      <c r="AX112">
+        <v>2.72</v>
+      </c>
+      <c r="AY112">
+        <v>8.6</v>
+      </c>
+      <c r="AZ112">
+        <v>1.61</v>
+      </c>
+      <c r="BA112">
+        <v>1.42</v>
+      </c>
+      <c r="BB112">
+        <v>1.78</v>
+      </c>
+      <c r="BC112">
+        <v>2.24</v>
+      </c>
+      <c r="BD112">
+        <v>3.2</v>
+      </c>
+      <c r="BE112">
+        <v>4.6</v>
+      </c>
+      <c r="BF112">
+        <v>3</v>
+      </c>
+      <c r="BG112">
+        <v>5</v>
+      </c>
+      <c r="BH112">
+        <v>2</v>
+      </c>
+      <c r="BI112">
+        <v>6</v>
+      </c>
+      <c r="BJ112">
+        <v>5</v>
+      </c>
+      <c r="BK112">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="223">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1044,7 +1044,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK112"/>
+  <dimension ref="A1:BK113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT8">
         <v>0.29</v>
@@ -3670,7 +3670,7 @@
         <v>1.83</v>
       </c>
       <c r="AT14">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -5577,7 +5577,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT24">
         <v>0.14</v>
@@ -6153,7 +6153,7 @@
         <v>1.71</v>
       </c>
       <c r="AT27">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU27">
         <v>2.14</v>
@@ -9782,7 +9782,7 @@
         <v>1.57</v>
       </c>
       <c r="AT46">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU46">
         <v>0.75</v>
@@ -10161,7 +10161,7 @@
         <v>1.5</v>
       </c>
       <c r="AS48">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT48">
         <v>1.71</v>
@@ -12262,7 +12262,7 @@
         <v>1.33</v>
       </c>
       <c r="AS59">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT59">
         <v>2.29</v>
@@ -12456,7 +12456,7 @@
         <v>2.14</v>
       </c>
       <c r="AT60">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU60">
         <v>1.73</v>
@@ -15512,7 +15512,7 @@
         <v>2.14</v>
       </c>
       <c r="AT76">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU76">
         <v>1.55</v>
@@ -16273,7 +16273,7 @@
         <v>1.8</v>
       </c>
       <c r="AS80">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT80">
         <v>1.86</v>
@@ -18759,7 +18759,7 @@
         <v>2.5</v>
       </c>
       <c r="AT93">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU93">
         <v>1.19</v>
@@ -19520,7 +19520,7 @@
         <v>0</v>
       </c>
       <c r="AS97">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT97">
         <v>0.14</v>
@@ -22042,22 +22042,22 @@
         <v>3.34</v>
       </c>
       <c r="BF110">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BG110">
         <v>4</v>
       </c>
       <c r="BH110">
+        <v>3</v>
+      </c>
+      <c r="BI110">
         <v>5</v>
       </c>
-      <c r="BI110">
-        <v>4</v>
-      </c>
       <c r="BJ110">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BK110">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:63">
@@ -22233,7 +22233,7 @@
         <v>4.4</v>
       </c>
       <c r="BF111">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG111">
         <v>3</v>
@@ -22245,7 +22245,7 @@
         <v>2</v>
       </c>
       <c r="BJ111">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BK111">
         <v>5</v>
@@ -22440,6 +22440,197 @@
       </c>
       <c r="BK112">
         <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:63">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>5231256</v>
+      </c>
+      <c r="C113" t="s">
+        <v>63</v>
+      </c>
+      <c r="D113" t="s">
+        <v>64</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45089.875</v>
+      </c>
+      <c r="F113">
+        <v>14</v>
+      </c>
+      <c r="G113" t="s">
+        <v>71</v>
+      </c>
+      <c r="H113" t="s">
+        <v>68</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113" t="s">
+        <v>86</v>
+      </c>
+      <c r="P113" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q113">
+        <v>15</v>
+      </c>
+      <c r="R113">
+        <v>2</v>
+      </c>
+      <c r="S113">
+        <v>17</v>
+      </c>
+      <c r="T113">
+        <v>1.87</v>
+      </c>
+      <c r="U113">
+        <v>2.35</v>
+      </c>
+      <c r="V113">
+        <v>6.5</v>
+      </c>
+      <c r="W113">
+        <v>1.33</v>
+      </c>
+      <c r="X113">
+        <v>3</v>
+      </c>
+      <c r="Y113">
+        <v>2.45</v>
+      </c>
+      <c r="Z113">
+        <v>1.47</v>
+      </c>
+      <c r="AA113">
+        <v>6</v>
+      </c>
+      <c r="AB113">
+        <v>1.11</v>
+      </c>
+      <c r="AC113">
+        <v>1.35</v>
+      </c>
+      <c r="AD113">
+        <v>4.4</v>
+      </c>
+      <c r="AE113">
+        <v>7.4</v>
+      </c>
+      <c r="AF113">
+        <v>1.04</v>
+      </c>
+      <c r="AG113">
+        <v>10.5</v>
+      </c>
+      <c r="AH113">
+        <v>1.22</v>
+      </c>
+      <c r="AI113">
+        <v>4</v>
+      </c>
+      <c r="AJ113">
+        <v>1.76</v>
+      </c>
+      <c r="AK113">
+        <v>1.96</v>
+      </c>
+      <c r="AL113">
+        <v>1.98</v>
+      </c>
+      <c r="AM113">
+        <v>1.78</v>
+      </c>
+      <c r="AN113">
+        <v>1.06</v>
+      </c>
+      <c r="AO113">
+        <v>1.16</v>
+      </c>
+      <c r="AP113">
+        <v>2.91</v>
+      </c>
+      <c r="AQ113">
+        <v>1.33</v>
+      </c>
+      <c r="AR113">
+        <v>0.5</v>
+      </c>
+      <c r="AS113">
+        <v>1.29</v>
+      </c>
+      <c r="AT113">
+        <v>0.57</v>
+      </c>
+      <c r="AU113">
+        <v>1.4</v>
+      </c>
+      <c r="AV113">
+        <v>1.21</v>
+      </c>
+      <c r="AW113">
+        <v>2.61</v>
+      </c>
+      <c r="AX113">
+        <v>1.29</v>
+      </c>
+      <c r="AY113">
+        <v>10.25</v>
+      </c>
+      <c r="AZ113">
+        <v>4.3</v>
+      </c>
+      <c r="BA113">
+        <v>1.28</v>
+      </c>
+      <c r="BB113">
+        <v>1.58</v>
+      </c>
+      <c r="BC113">
+        <v>1.95</v>
+      </c>
+      <c r="BD113">
+        <v>2.44</v>
+      </c>
+      <c r="BE113">
+        <v>3.34</v>
+      </c>
+      <c r="BF113">
+        <v>9</v>
+      </c>
+      <c r="BG113">
+        <v>6</v>
+      </c>
+      <c r="BH113">
+        <v>8</v>
+      </c>
+      <c r="BI113">
+        <v>4</v>
+      </c>
+      <c r="BJ113">
+        <v>17</v>
+      </c>
+      <c r="BK113">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="233">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -523,6 +523,21 @@
     <t>['46']</t>
   </si>
   <si>
+    <t>['4', '61', '90+4']</t>
+  </si>
+  <si>
+    <t>['6', '87']</t>
+  </si>
+  <si>
+    <t>['46', '53']</t>
+  </si>
+  <si>
+    <t>['87', '90+6']</t>
+  </si>
+  <si>
+    <t>['29', '59', '90+2']</t>
+  </si>
+  <si>
     <t>['24']</t>
   </si>
   <si>
@@ -683,6 +698,21 @@
   </si>
   <si>
     <t>['42', '55']</t>
+  </si>
+  <si>
+    <t>['27', '40', '48', '90+11']</t>
+  </si>
+  <si>
+    <t>['79']</t>
+  </si>
+  <si>
+    <t>['78']</t>
+  </si>
+  <si>
+    <t>['60', '84']</t>
+  </si>
+  <si>
+    <t>['38', '50']</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1074,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK113"/>
+  <dimension ref="A1:BK118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1375,10 +1405,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT2">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1479,7 +1509,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q3">
         <v>9</v>
@@ -1566,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT3">
         <v>0.13</v>
@@ -1670,7 +1700,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1861,7 +1891,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -1948,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT5">
         <v>1.14</v>
@@ -2052,7 +2082,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2243,7 +2273,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2333,7 +2363,7 @@
         <v>2.14</v>
       </c>
       <c r="AT7">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2524,7 +2554,7 @@
         <v>1.29</v>
       </c>
       <c r="AT8">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2625,7 +2655,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2816,7 +2846,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3007,7 +3037,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3198,7 +3228,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -3667,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT14">
         <v>0.57</v>
@@ -3861,7 +3891,7 @@
         <v>1.86</v>
       </c>
       <c r="AT15">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3962,7 +3992,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -4052,7 +4082,7 @@
         <v>2.57</v>
       </c>
       <c r="AT16">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4240,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT17">
         <v>2.29</v>
@@ -4431,7 +4461,7 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT18">
         <v>0.43</v>
@@ -4535,7 +4565,7 @@
         <v>97</v>
       </c>
       <c r="P19" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4625,7 +4655,7 @@
         <v>2.5</v>
       </c>
       <c r="AT19">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU19">
         <v>0.88</v>
@@ -4726,7 +4756,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5004,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT21">
         <v>1.14</v>
@@ -5108,7 +5138,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -5299,7 +5329,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5389,7 +5419,7 @@
         <v>2.14</v>
       </c>
       <c r="AT23">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU23">
         <v>1.24</v>
@@ -5768,7 +5798,7 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT25">
         <v>0.43</v>
@@ -5872,7 +5902,7 @@
         <v>103</v>
       </c>
       <c r="P26" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -6063,7 +6093,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6254,7 +6284,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6636,7 +6666,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -6726,7 +6756,7 @@
         <v>2.5</v>
       </c>
       <c r="AT30">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU30">
         <v>0.88</v>
@@ -7105,10 +7135,10 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT32">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU32">
         <v>0.43</v>
@@ -7209,7 +7239,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7299,7 +7329,7 @@
         <v>2.57</v>
       </c>
       <c r="AT33">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU33">
         <v>0.91</v>
@@ -7678,7 +7708,7 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT35">
         <v>0.14</v>
@@ -7782,7 +7812,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8060,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT37">
         <v>0.67</v>
@@ -8251,10 +8281,10 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT38">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU38">
         <v>1.52</v>
@@ -8355,7 +8385,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -8445,7 +8475,7 @@
         <v>1.57</v>
       </c>
       <c r="AT39">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU39">
         <v>1.48</v>
@@ -8546,7 +8576,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q40">
         <v>8</v>
@@ -8636,7 +8666,7 @@
         <v>2.14</v>
       </c>
       <c r="AT40">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU40">
         <v>1.59</v>
@@ -8737,7 +8767,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9119,7 +9149,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9310,7 +9340,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9397,10 +9427,10 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT44">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU44">
         <v>1.83</v>
@@ -9501,7 +9531,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q45">
         <v>7</v>
@@ -9779,7 +9809,7 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT46">
         <v>0.57</v>
@@ -10074,7 +10104,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q48">
         <v>6</v>
@@ -10164,7 +10194,7 @@
         <v>1.29</v>
       </c>
       <c r="AT48">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU48">
         <v>1.47</v>
@@ -10265,7 +10295,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q49">
         <v>12</v>
@@ -10456,7 +10486,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10734,7 +10764,7 @@
         <v>1</v>
       </c>
       <c r="AS51">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT51">
         <v>1.14</v>
@@ -10925,7 +10955,7 @@
         <v>0.33</v>
       </c>
       <c r="AS52">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT52">
         <v>0.14</v>
@@ -11029,7 +11059,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11119,7 +11149,7 @@
         <v>2.57</v>
       </c>
       <c r="AT53">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU53">
         <v>1.49</v>
@@ -11220,7 +11250,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11310,7 +11340,7 @@
         <v>2.14</v>
       </c>
       <c r="AT54">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU54">
         <v>1.38</v>
@@ -11411,7 +11441,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q55">
         <v>8</v>
@@ -11689,10 +11719,10 @@
         <v>0</v>
       </c>
       <c r="AS56">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT56">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU56">
         <v>1.22</v>
@@ -11793,7 +11823,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12074,7 +12104,7 @@
         <v>2.14</v>
       </c>
       <c r="AT58">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU58">
         <v>1.45</v>
@@ -12175,7 +12205,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12366,7 +12396,7 @@
         <v>133</v>
       </c>
       <c r="P60" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -12453,7 +12483,7 @@
         <v>0</v>
       </c>
       <c r="AS60">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT60">
         <v>0.57</v>
@@ -12557,7 +12587,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -12647,7 +12677,7 @@
         <v>1.86</v>
       </c>
       <c r="AT61">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU61">
         <v>1.29</v>
@@ -12748,7 +12778,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12939,7 +12969,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13026,7 +13056,7 @@
         <v>0</v>
       </c>
       <c r="AS63">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT63">
         <v>0.13</v>
@@ -13411,7 +13441,7 @@
         <v>2.5</v>
       </c>
       <c r="AT65">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU65">
         <v>1.1</v>
@@ -13512,7 +13542,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -13894,7 +13924,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q68">
         <v>1</v>
@@ -13984,7 +14014,7 @@
         <v>1.57</v>
       </c>
       <c r="AT68">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU68">
         <v>1.18</v>
@@ -14085,7 +14115,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q69">
         <v>1</v>
@@ -14172,7 +14202,7 @@
         <v>1.75</v>
       </c>
       <c r="AS69">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT69">
         <v>2.29</v>
@@ -14363,10 +14393,10 @@
         <v>1.5</v>
       </c>
       <c r="AS70">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT70">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU70">
         <v>1.17</v>
@@ -14554,10 +14584,10 @@
         <v>0.25</v>
       </c>
       <c r="AS71">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT71">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU71">
         <v>0.82</v>
@@ -14658,7 +14688,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -15127,7 +15157,7 @@
         <v>0.2</v>
       </c>
       <c r="AS74">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT74">
         <v>0.13</v>
@@ -15231,7 +15261,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15613,7 +15643,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -16082,10 +16112,10 @@
         <v>0</v>
       </c>
       <c r="AS79">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT79">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU79">
         <v>1.72</v>
@@ -16186,7 +16216,7 @@
         <v>112</v>
       </c>
       <c r="P80" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16276,7 +16306,7 @@
         <v>1.29</v>
       </c>
       <c r="AT80">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU80">
         <v>1.3</v>
@@ -16568,7 +16598,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -17037,7 +17067,7 @@
         <v>1.25</v>
       </c>
       <c r="AS84">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT84">
         <v>0.86</v>
@@ -17141,7 +17171,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -17228,7 +17258,7 @@
         <v>2</v>
       </c>
       <c r="AS85">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT85">
         <v>2.29</v>
@@ -17332,7 +17362,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -17422,7 +17452,7 @@
         <v>1.86</v>
       </c>
       <c r="AT86">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU86">
         <v>1.51</v>
@@ -17610,10 +17640,10 @@
         <v>0.2</v>
       </c>
       <c r="AS87">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT87">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU87">
         <v>1.26</v>
@@ -17801,7 +17831,7 @@
         <v>0.25</v>
       </c>
       <c r="AS88">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT88">
         <v>0.67</v>
@@ -17905,7 +17935,7 @@
         <v>151</v>
       </c>
       <c r="P89" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -17995,7 +18025,7 @@
         <v>1.57</v>
       </c>
       <c r="AT89">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU89">
         <v>1.19</v>
@@ -18096,7 +18126,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18860,7 +18890,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19051,7 +19081,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q95">
         <v>1</v>
@@ -19138,10 +19168,10 @@
         <v>1.67</v>
       </c>
       <c r="AS95">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT95">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU95">
         <v>1.88</v>
@@ -19523,7 +19553,7 @@
         <v>1.29</v>
       </c>
       <c r="AT97">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU97">
         <v>1.33</v>
@@ -19711,7 +19741,7 @@
         <v>1.2</v>
       </c>
       <c r="AS98">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT98">
         <v>0.86</v>
@@ -19815,7 +19845,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -19905,7 +19935,7 @@
         <v>1.71</v>
       </c>
       <c r="AT99">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU99">
         <v>1.91</v>
@@ -20006,7 +20036,7 @@
         <v>160</v>
       </c>
       <c r="P100" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q100">
         <v>8</v>
@@ -20093,7 +20123,7 @@
         <v>0.5</v>
       </c>
       <c r="AS100">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT100">
         <v>0.43</v>
@@ -20197,7 +20227,7 @@
         <v>161</v>
       </c>
       <c r="P101" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20287,7 +20317,7 @@
         <v>2.57</v>
       </c>
       <c r="AT101">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU101">
         <v>1.82</v>
@@ -20475,7 +20505,7 @@
         <v>0.83</v>
       </c>
       <c r="AS102">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT102">
         <v>1.14</v>
@@ -20669,7 +20699,7 @@
         <v>2</v>
       </c>
       <c r="AT103">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU103">
         <v>1.35</v>
@@ -20770,7 +20800,7 @@
         <v>163</v>
       </c>
       <c r="P104" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q104">
         <v>2</v>
@@ -20857,10 +20887,10 @@
         <v>1.5</v>
       </c>
       <c r="AS104">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT104">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU104">
         <v>1.23</v>
@@ -21048,7 +21078,7 @@
         <v>0.8</v>
       </c>
       <c r="AS105">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT105">
         <v>0.67</v>
@@ -21152,7 +21182,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -22107,7 +22137,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q111">
         <v>8</v>
@@ -22298,7 +22328,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q112">
         <v>5</v>
@@ -22631,6 +22661,961 @@
       </c>
       <c r="BK113">
         <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:63">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>5231261</v>
+      </c>
+      <c r="C114" t="s">
+        <v>63</v>
+      </c>
+      <c r="D114" t="s">
+        <v>64</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45093.875</v>
+      </c>
+      <c r="F114">
+        <v>15</v>
+      </c>
+      <c r="G114" t="s">
+        <v>66</v>
+      </c>
+      <c r="H114" t="s">
+        <v>74</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>2</v>
+      </c>
+      <c r="K114">
+        <v>3</v>
+      </c>
+      <c r="L114">
+        <v>3</v>
+      </c>
+      <c r="M114">
+        <v>4</v>
+      </c>
+      <c r="N114">
+        <v>7</v>
+      </c>
+      <c r="O114" t="s">
+        <v>169</v>
+      </c>
+      <c r="P114" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q114">
+        <v>6</v>
+      </c>
+      <c r="R114">
+        <v>3</v>
+      </c>
+      <c r="S114">
+        <v>9</v>
+      </c>
+      <c r="T114">
+        <v>2.05</v>
+      </c>
+      <c r="U114">
+        <v>2.5</v>
+      </c>
+      <c r="V114">
+        <v>5</v>
+      </c>
+      <c r="W114">
+        <v>1.29</v>
+      </c>
+      <c r="X114">
+        <v>3.5</v>
+      </c>
+      <c r="Y114">
+        <v>2.25</v>
+      </c>
+      <c r="Z114">
+        <v>1.57</v>
+      </c>
+      <c r="AA114">
+        <v>5.5</v>
+      </c>
+      <c r="AB114">
+        <v>1.14</v>
+      </c>
+      <c r="AC114">
+        <v>1.5</v>
+      </c>
+      <c r="AD114">
+        <v>4.4</v>
+      </c>
+      <c r="AE114">
+        <v>5</v>
+      </c>
+      <c r="AF114">
+        <v>1.02</v>
+      </c>
+      <c r="AG114">
+        <v>16</v>
+      </c>
+      <c r="AH114">
+        <v>1.14</v>
+      </c>
+      <c r="AI114">
+        <v>4.5</v>
+      </c>
+      <c r="AJ114">
+        <v>1.5</v>
+      </c>
+      <c r="AK114">
+        <v>2.4</v>
+      </c>
+      <c r="AL114">
+        <v>1.67</v>
+      </c>
+      <c r="AM114">
+        <v>2.1</v>
+      </c>
+      <c r="AN114">
+        <v>1.14</v>
+      </c>
+      <c r="AO114">
+        <v>1.18</v>
+      </c>
+      <c r="AP114">
+        <v>2.33</v>
+      </c>
+      <c r="AQ114">
+        <v>2.57</v>
+      </c>
+      <c r="AR114">
+        <v>1.71</v>
+      </c>
+      <c r="AS114">
+        <v>2.25</v>
+      </c>
+      <c r="AT114">
+        <v>1.88</v>
+      </c>
+      <c r="AU114">
+        <v>1.7</v>
+      </c>
+      <c r="AV114">
+        <v>1.82</v>
+      </c>
+      <c r="AW114">
+        <v>3.52</v>
+      </c>
+      <c r="AX114">
+        <v>1.42</v>
+      </c>
+      <c r="AY114">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ114">
+        <v>3.4</v>
+      </c>
+      <c r="BA114">
+        <v>1.28</v>
+      </c>
+      <c r="BB114">
+        <v>1.58</v>
+      </c>
+      <c r="BC114">
+        <v>1.94</v>
+      </c>
+      <c r="BD114">
+        <v>2.45</v>
+      </c>
+      <c r="BE114">
+        <v>3.34</v>
+      </c>
+      <c r="BF114">
+        <v>9</v>
+      </c>
+      <c r="BG114">
+        <v>10</v>
+      </c>
+      <c r="BH114">
+        <v>4</v>
+      </c>
+      <c r="BI114">
+        <v>4</v>
+      </c>
+      <c r="BJ114">
+        <v>13</v>
+      </c>
+      <c r="BK114">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:63">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>5231264</v>
+      </c>
+      <c r="C115" t="s">
+        <v>63</v>
+      </c>
+      <c r="D115" t="s">
+        <v>64</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45094.625</v>
+      </c>
+      <c r="F115">
+        <v>15</v>
+      </c>
+      <c r="G115" t="s">
+        <v>80</v>
+      </c>
+      <c r="H115" t="s">
+        <v>73</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>2</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>3</v>
+      </c>
+      <c r="O115" t="s">
+        <v>170</v>
+      </c>
+      <c r="P115" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q115">
+        <v>0</v>
+      </c>
+      <c r="R115">
+        <v>4</v>
+      </c>
+      <c r="S115">
+        <v>4</v>
+      </c>
+      <c r="T115">
+        <v>3.2</v>
+      </c>
+      <c r="U115">
+        <v>1.95</v>
+      </c>
+      <c r="V115">
+        <v>3.4</v>
+      </c>
+      <c r="W115">
+        <v>1.51</v>
+      </c>
+      <c r="X115">
+        <v>2.4</v>
+      </c>
+      <c r="Y115">
+        <v>3.2</v>
+      </c>
+      <c r="Z115">
+        <v>1.3</v>
+      </c>
+      <c r="AA115">
+        <v>9</v>
+      </c>
+      <c r="AB115">
+        <v>1.06</v>
+      </c>
+      <c r="AC115">
+        <v>2.5</v>
+      </c>
+      <c r="AD115">
+        <v>2.9</v>
+      </c>
+      <c r="AE115">
+        <v>2.88</v>
+      </c>
+      <c r="AF115">
+        <v>1.08</v>
+      </c>
+      <c r="AG115">
+        <v>7.25</v>
+      </c>
+      <c r="AH115">
+        <v>1.42</v>
+      </c>
+      <c r="AI115">
+        <v>2.7</v>
+      </c>
+      <c r="AJ115">
+        <v>2.3</v>
+      </c>
+      <c r="AK115">
+        <v>1.55</v>
+      </c>
+      <c r="AL115">
+        <v>1.95</v>
+      </c>
+      <c r="AM115">
+        <v>1.8</v>
+      </c>
+      <c r="AN115">
+        <v>1.36</v>
+      </c>
+      <c r="AO115">
+        <v>1.28</v>
+      </c>
+      <c r="AP115">
+        <v>1.42</v>
+      </c>
+      <c r="AQ115">
+        <v>1.57</v>
+      </c>
+      <c r="AR115">
+        <v>0.29</v>
+      </c>
+      <c r="AS115">
+        <v>1.75</v>
+      </c>
+      <c r="AT115">
+        <v>0.25</v>
+      </c>
+      <c r="AU115">
+        <v>1.11</v>
+      </c>
+      <c r="AV115">
+        <v>1.15</v>
+      </c>
+      <c r="AW115">
+        <v>2.26</v>
+      </c>
+      <c r="AX115">
+        <v>1.81</v>
+      </c>
+      <c r="AY115">
+        <v>8.1</v>
+      </c>
+      <c r="AZ115">
+        <v>2.33</v>
+      </c>
+      <c r="BA115">
+        <v>1.52</v>
+      </c>
+      <c r="BB115">
+        <v>1.93</v>
+      </c>
+      <c r="BC115">
+        <v>2.6</v>
+      </c>
+      <c r="BD115">
+        <v>3.65</v>
+      </c>
+      <c r="BE115">
+        <v>5.4</v>
+      </c>
+      <c r="BF115">
+        <v>7</v>
+      </c>
+      <c r="BG115">
+        <v>3</v>
+      </c>
+      <c r="BH115">
+        <v>1</v>
+      </c>
+      <c r="BI115">
+        <v>4</v>
+      </c>
+      <c r="BJ115">
+        <v>8</v>
+      </c>
+      <c r="BK115">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:63">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>5231258</v>
+      </c>
+      <c r="C116" t="s">
+        <v>63</v>
+      </c>
+      <c r="D116" t="s">
+        <v>64</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45094.72916666666</v>
+      </c>
+      <c r="F116">
+        <v>15</v>
+      </c>
+      <c r="G116" t="s">
+        <v>68</v>
+      </c>
+      <c r="H116" t="s">
+        <v>67</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>2</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>3</v>
+      </c>
+      <c r="O116" t="s">
+        <v>171</v>
+      </c>
+      <c r="P116" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q116">
+        <v>9</v>
+      </c>
+      <c r="R116">
+        <v>3</v>
+      </c>
+      <c r="S116">
+        <v>12</v>
+      </c>
+      <c r="T116">
+        <v>2.59</v>
+      </c>
+      <c r="U116">
+        <v>2.24</v>
+      </c>
+      <c r="V116">
+        <v>4.39</v>
+      </c>
+      <c r="W116">
+        <v>1.39</v>
+      </c>
+      <c r="X116">
+        <v>2.98</v>
+      </c>
+      <c r="Y116">
+        <v>2.94</v>
+      </c>
+      <c r="Z116">
+        <v>1.4</v>
+      </c>
+      <c r="AA116">
+        <v>6.5</v>
+      </c>
+      <c r="AB116">
+        <v>1.04</v>
+      </c>
+      <c r="AC116">
+        <v>3.7</v>
+      </c>
+      <c r="AD116">
+        <v>3.3</v>
+      </c>
+      <c r="AE116">
+        <v>1.82</v>
+      </c>
+      <c r="AF116">
+        <v>1.02</v>
+      </c>
+      <c r="AG116">
+        <v>10.5</v>
+      </c>
+      <c r="AH116">
+        <v>1.26</v>
+      </c>
+      <c r="AI116">
+        <v>3.5</v>
+      </c>
+      <c r="AJ116">
+        <v>1.9</v>
+      </c>
+      <c r="AK116">
+        <v>1.83</v>
+      </c>
+      <c r="AL116">
+        <v>1.77</v>
+      </c>
+      <c r="AM116">
+        <v>1.97</v>
+      </c>
+      <c r="AN116">
+        <v>1.26</v>
+      </c>
+      <c r="AO116">
+        <v>1.27</v>
+      </c>
+      <c r="AP116">
+        <v>1.88</v>
+      </c>
+      <c r="AQ116">
+        <v>1.57</v>
+      </c>
+      <c r="AR116">
+        <v>0.14</v>
+      </c>
+      <c r="AS116">
+        <v>1.75</v>
+      </c>
+      <c r="AT116">
+        <v>0.13</v>
+      </c>
+      <c r="AU116">
+        <v>1.28</v>
+      </c>
+      <c r="AV116">
+        <v>0.83</v>
+      </c>
+      <c r="AW116">
+        <v>2.11</v>
+      </c>
+      <c r="AX116">
+        <v>1.67</v>
+      </c>
+      <c r="AY116">
+        <v>8.4</v>
+      </c>
+      <c r="AZ116">
+        <v>2.58</v>
+      </c>
+      <c r="BA116">
+        <v>1.41</v>
+      </c>
+      <c r="BB116">
+        <v>1.76</v>
+      </c>
+      <c r="BC116">
+        <v>2.25</v>
+      </c>
+      <c r="BD116">
+        <v>3.08</v>
+      </c>
+      <c r="BE116">
+        <v>4.6</v>
+      </c>
+      <c r="BF116">
+        <v>6</v>
+      </c>
+      <c r="BG116">
+        <v>6</v>
+      </c>
+      <c r="BH116">
+        <v>7</v>
+      </c>
+      <c r="BI116">
+        <v>4</v>
+      </c>
+      <c r="BJ116">
+        <v>13</v>
+      </c>
+      <c r="BK116">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:63">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>5231259</v>
+      </c>
+      <c r="C117" t="s">
+        <v>63</v>
+      </c>
+      <c r="D117" t="s">
+        <v>64</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45094.83333333334</v>
+      </c>
+      <c r="F117">
+        <v>15</v>
+      </c>
+      <c r="G117" t="s">
+        <v>77</v>
+      </c>
+      <c r="H117" t="s">
+        <v>75</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>2</v>
+      </c>
+      <c r="M117">
+        <v>2</v>
+      </c>
+      <c r="N117">
+        <v>4</v>
+      </c>
+      <c r="O117" t="s">
+        <v>172</v>
+      </c>
+      <c r="P117" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q117">
+        <v>6</v>
+      </c>
+      <c r="R117">
+        <v>6</v>
+      </c>
+      <c r="S117">
+        <v>12</v>
+      </c>
+      <c r="T117">
+        <v>4</v>
+      </c>
+      <c r="U117">
+        <v>2.25</v>
+      </c>
+      <c r="V117">
+        <v>2.63</v>
+      </c>
+      <c r="W117">
+        <v>1.36</v>
+      </c>
+      <c r="X117">
+        <v>3</v>
+      </c>
+      <c r="Y117">
+        <v>2.63</v>
+      </c>
+      <c r="Z117">
+        <v>1.44</v>
+      </c>
+      <c r="AA117">
+        <v>7</v>
+      </c>
+      <c r="AB117">
+        <v>1.1</v>
+      </c>
+      <c r="AC117">
+        <v>3.5</v>
+      </c>
+      <c r="AD117">
+        <v>3.3</v>
+      </c>
+      <c r="AE117">
+        <v>1.95</v>
+      </c>
+      <c r="AF117">
+        <v>1.03</v>
+      </c>
+      <c r="AG117">
+        <v>13</v>
+      </c>
+      <c r="AH117">
+        <v>1.25</v>
+      </c>
+      <c r="AI117">
+        <v>3.6</v>
+      </c>
+      <c r="AJ117">
+        <v>1.8</v>
+      </c>
+      <c r="AK117">
+        <v>2</v>
+      </c>
+      <c r="AL117">
+        <v>1.67</v>
+      </c>
+      <c r="AM117">
+        <v>2.1</v>
+      </c>
+      <c r="AN117">
+        <v>1.78</v>
+      </c>
+      <c r="AO117">
+        <v>1.28</v>
+      </c>
+      <c r="AP117">
+        <v>1.28</v>
+      </c>
+      <c r="AQ117">
+        <v>1.83</v>
+      </c>
+      <c r="AR117">
+        <v>1.86</v>
+      </c>
+      <c r="AS117">
+        <v>1.71</v>
+      </c>
+      <c r="AT117">
+        <v>1.75</v>
+      </c>
+      <c r="AU117">
+        <v>1.38</v>
+      </c>
+      <c r="AV117">
+        <v>1.64</v>
+      </c>
+      <c r="AW117">
+        <v>3.02</v>
+      </c>
+      <c r="AX117">
+        <v>2.52</v>
+      </c>
+      <c r="AY117">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ117">
+        <v>1.68</v>
+      </c>
+      <c r="BA117">
+        <v>1.24</v>
+      </c>
+      <c r="BB117">
+        <v>1.46</v>
+      </c>
+      <c r="BC117">
+        <v>1.82</v>
+      </c>
+      <c r="BD117">
+        <v>2.32</v>
+      </c>
+      <c r="BE117">
+        <v>3.08</v>
+      </c>
+      <c r="BF117">
+        <v>3</v>
+      </c>
+      <c r="BG117">
+        <v>6</v>
+      </c>
+      <c r="BH117">
+        <v>2</v>
+      </c>
+      <c r="BI117">
+        <v>9</v>
+      </c>
+      <c r="BJ117">
+        <v>5</v>
+      </c>
+      <c r="BK117">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:63">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>5231257</v>
+      </c>
+      <c r="C118" t="s">
+        <v>63</v>
+      </c>
+      <c r="D118" t="s">
+        <v>64</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45095.72916666666</v>
+      </c>
+      <c r="F118">
+        <v>15</v>
+      </c>
+      <c r="G118" t="s">
+        <v>65</v>
+      </c>
+      <c r="H118" t="s">
+        <v>71</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>2</v>
+      </c>
+      <c r="L118">
+        <v>3</v>
+      </c>
+      <c r="M118">
+        <v>2</v>
+      </c>
+      <c r="N118">
+        <v>5</v>
+      </c>
+      <c r="O118" t="s">
+        <v>173</v>
+      </c>
+      <c r="P118" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q118">
+        <v>4</v>
+      </c>
+      <c r="R118">
+        <v>7</v>
+      </c>
+      <c r="S118">
+        <v>11</v>
+      </c>
+      <c r="T118">
+        <v>3.1</v>
+      </c>
+      <c r="U118">
+        <v>2.2</v>
+      </c>
+      <c r="V118">
+        <v>3.25</v>
+      </c>
+      <c r="W118">
+        <v>1.36</v>
+      </c>
+      <c r="X118">
+        <v>3</v>
+      </c>
+      <c r="Y118">
+        <v>2.63</v>
+      </c>
+      <c r="Z118">
+        <v>1.44</v>
+      </c>
+      <c r="AA118">
+        <v>7</v>
+      </c>
+      <c r="AB118">
+        <v>1.1</v>
+      </c>
+      <c r="AC118">
+        <v>2.6</v>
+      </c>
+      <c r="AD118">
+        <v>3.2</v>
+      </c>
+      <c r="AE118">
+        <v>2.7</v>
+      </c>
+      <c r="AF118">
+        <v>1.03</v>
+      </c>
+      <c r="AG118">
+        <v>9</v>
+      </c>
+      <c r="AH118">
+        <v>1.28</v>
+      </c>
+      <c r="AI118">
+        <v>3.65</v>
+      </c>
+      <c r="AJ118">
+        <v>1.79</v>
+      </c>
+      <c r="AK118">
+        <v>1.88</v>
+      </c>
+      <c r="AL118">
+        <v>1.62</v>
+      </c>
+      <c r="AM118">
+        <v>2.2</v>
+      </c>
+      <c r="AN118">
+        <v>1.49</v>
+      </c>
+      <c r="AO118">
+        <v>1.31</v>
+      </c>
+      <c r="AP118">
+        <v>1.46</v>
+      </c>
+      <c r="AQ118">
+        <v>2.14</v>
+      </c>
+      <c r="AR118">
+        <v>0.71</v>
+      </c>
+      <c r="AS118">
+        <v>2.25</v>
+      </c>
+      <c r="AT118">
+        <v>0.63</v>
+      </c>
+      <c r="AU118">
+        <v>1.5</v>
+      </c>
+      <c r="AV118">
+        <v>1.29</v>
+      </c>
+      <c r="AW118">
+        <v>2.79</v>
+      </c>
+      <c r="AX118">
+        <v>1.94</v>
+      </c>
+      <c r="AY118">
+        <v>8.6</v>
+      </c>
+      <c r="AZ118">
+        <v>2.11</v>
+      </c>
+      <c r="BA118">
+        <v>1.28</v>
+      </c>
+      <c r="BB118">
+        <v>1.52</v>
+      </c>
+      <c r="BC118">
+        <v>1.9</v>
+      </c>
+      <c r="BD118">
+        <v>2.45</v>
+      </c>
+      <c r="BE118">
+        <v>3.34</v>
+      </c>
+      <c r="BF118">
+        <v>5</v>
+      </c>
+      <c r="BG118">
+        <v>3</v>
+      </c>
+      <c r="BH118">
+        <v>3</v>
+      </c>
+      <c r="BI118">
+        <v>3</v>
+      </c>
+      <c r="BJ118">
+        <v>8</v>
+      </c>
+      <c r="BK118">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="235">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -538,6 +538,12 @@
     <t>['29', '59', '90+2']</t>
   </si>
   <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['11', '20', '82']</t>
+  </si>
+  <si>
     <t>['24']</t>
   </si>
   <si>
@@ -596,9 +602,6 @@
   </si>
   <si>
     <t>['90+9', '90+11']</t>
-  </si>
-  <si>
-    <t>['90+3']</t>
   </si>
   <si>
     <t>['90+9']</t>
@@ -713,6 +716,9 @@
   </si>
   <si>
     <t>['38', '50']</t>
+  </si>
+  <si>
+    <t>['29', '45']</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1080,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK118"/>
+  <dimension ref="A1:BK120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1509,7 +1515,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q3">
         <v>9</v>
@@ -1700,7 +1706,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1891,7 +1897,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -2082,7 +2088,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2169,10 +2175,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT6">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2273,7 +2279,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2655,7 +2661,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2846,7 +2852,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3037,7 +3043,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3228,7 +3234,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -3506,10 +3512,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT13">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3992,7 +3998,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -4565,7 +4571,7 @@
         <v>97</v>
       </c>
       <c r="P19" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4756,7 +4762,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5138,7 +5144,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -5228,7 +5234,7 @@
         <v>2.14</v>
       </c>
       <c r="AT22">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU22">
         <v>1.77</v>
@@ -5329,7 +5335,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5902,7 +5908,7 @@
         <v>103</v>
       </c>
       <c r="P26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -6093,7 +6099,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6284,7 +6290,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6562,7 +6568,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT29">
         <v>0.13</v>
@@ -6666,7 +6672,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -6944,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT31">
         <v>0.43</v>
@@ -7239,7 +7245,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7812,7 +7818,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7902,7 +7908,7 @@
         <v>2.14</v>
       </c>
       <c r="AT36">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU36">
         <v>1.3</v>
@@ -8093,7 +8099,7 @@
         <v>2.25</v>
       </c>
       <c r="AT37">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU37">
         <v>1.91</v>
@@ -8385,7 +8391,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -8576,7 +8582,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="Q40">
         <v>8</v>
@@ -8767,7 +8773,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -8854,7 +8860,7 @@
         <v>0.5</v>
       </c>
       <c r="AS41">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT41">
         <v>0.43</v>
@@ -9149,7 +9155,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9236,7 +9242,7 @@
         <v>1</v>
       </c>
       <c r="AS43">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT43">
         <v>0.86</v>
@@ -9340,7 +9346,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9531,7 +9537,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q45">
         <v>7</v>
@@ -10104,7 +10110,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q48">
         <v>6</v>
@@ -10295,7 +10301,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q49">
         <v>12</v>
@@ -10486,7 +10492,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10576,7 +10582,7 @@
         <v>1.57</v>
       </c>
       <c r="AT50">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU50">
         <v>1.25</v>
@@ -10767,7 +10773,7 @@
         <v>1.75</v>
       </c>
       <c r="AT51">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU51">
         <v>1.42</v>
@@ -11059,7 +11065,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11250,7 +11256,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11441,7 +11447,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q55">
         <v>8</v>
@@ -11528,7 +11534,7 @@
         <v>0</v>
       </c>
       <c r="AS55">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT55">
         <v>0.43</v>
@@ -11823,7 +11829,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12205,7 +12211,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12396,7 +12402,7 @@
         <v>133</v>
       </c>
       <c r="P60" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -12587,7 +12593,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -12778,7 +12784,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12865,7 +12871,7 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT62">
         <v>1.14</v>
@@ -12969,7 +12975,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13542,7 +13548,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -13924,7 +13930,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q68">
         <v>1</v>
@@ -14115,7 +14121,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q69">
         <v>1</v>
@@ -14688,7 +14694,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -14775,7 +14781,7 @@
         <v>1.67</v>
       </c>
       <c r="AS72">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT72">
         <v>0.86</v>
@@ -14969,7 +14975,7 @@
         <v>1.71</v>
       </c>
       <c r="AT73">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU73">
         <v>1.95</v>
@@ -15261,7 +15267,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15643,7 +15649,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -15924,7 +15930,7 @@
         <v>2.5</v>
       </c>
       <c r="AT78">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU78">
         <v>1.1</v>
@@ -16216,7 +16222,7 @@
         <v>112</v>
       </c>
       <c r="P80" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16494,7 +16500,7 @@
         <v>0.25</v>
       </c>
       <c r="AS81">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT81">
         <v>0.43</v>
@@ -16598,7 +16604,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -16876,7 +16882,7 @@
         <v>0.6</v>
       </c>
       <c r="AS83">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT83">
         <v>0.43</v>
@@ -17171,7 +17177,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -17362,7 +17368,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -17834,7 +17840,7 @@
         <v>1.75</v>
       </c>
       <c r="AT88">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU88">
         <v>0.93</v>
@@ -17935,7 +17941,7 @@
         <v>151</v>
       </c>
       <c r="P89" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18126,7 +18132,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18216,7 +18222,7 @@
         <v>1.57</v>
       </c>
       <c r="AT90">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU90">
         <v>1.09</v>
@@ -18404,7 +18410,7 @@
         <v>0.17</v>
       </c>
       <c r="AS91">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT91">
         <v>0.13</v>
@@ -18890,7 +18896,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19081,7 +19087,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q95">
         <v>1</v>
@@ -19845,7 +19851,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20036,7 +20042,7 @@
         <v>160</v>
       </c>
       <c r="P100" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q100">
         <v>8</v>
@@ -20227,7 +20233,7 @@
         <v>161</v>
       </c>
       <c r="P101" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20314,7 +20320,7 @@
         <v>0.33</v>
       </c>
       <c r="AS101">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT101">
         <v>0.63</v>
@@ -20508,7 +20514,7 @@
         <v>1.75</v>
       </c>
       <c r="AT102">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU102">
         <v>1.15</v>
@@ -20696,7 +20702,7 @@
         <v>0.17</v>
       </c>
       <c r="AS103">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT103">
         <v>0.13</v>
@@ -20800,7 +20806,7 @@
         <v>163</v>
       </c>
       <c r="P104" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q104">
         <v>2</v>
@@ -21081,7 +21087,7 @@
         <v>2.25</v>
       </c>
       <c r="AT105">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU105">
         <v>1.5</v>
@@ -21182,7 +21188,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -22137,7 +22143,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q111">
         <v>8</v>
@@ -22328,7 +22334,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q112">
         <v>5</v>
@@ -22710,7 +22716,7 @@
         <v>169</v>
       </c>
       <c r="P114" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -22901,7 +22907,7 @@
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -23092,7 +23098,7 @@
         <v>171</v>
       </c>
       <c r="P116" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q116">
         <v>9</v>
@@ -23283,7 +23289,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q117">
         <v>6</v>
@@ -23409,22 +23415,22 @@
         <v>3.08</v>
       </c>
       <c r="BF117">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG117">
+        <v>9</v>
+      </c>
+      <c r="BH117">
         <v>6</v>
       </c>
-      <c r="BH117">
-        <v>2</v>
-      </c>
       <c r="BI117">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BJ117">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BK117">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118" spans="1:63">
@@ -23474,16 +23480,16 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q118">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R118">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S118">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="T118">
         <v>3.1</v>
@@ -23600,22 +23606,404 @@
         <v>3.34</v>
       </c>
       <c r="BF118">
+        <v>9</v>
+      </c>
+      <c r="BG118">
         <v>5</v>
       </c>
-      <c r="BG118">
-        <v>3</v>
-      </c>
       <c r="BH118">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BI118">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ118">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BK118">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:63">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>5231260</v>
+      </c>
+      <c r="C119" t="s">
+        <v>63</v>
+      </c>
+      <c r="D119" t="s">
+        <v>64</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45095.83333333334</v>
+      </c>
+      <c r="F119">
+        <v>15</v>
+      </c>
+      <c r="G119" t="s">
+        <v>76</v>
+      </c>
+      <c r="H119" t="s">
+        <v>78</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>2</v>
+      </c>
+      <c r="K119">
+        <v>2</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>2</v>
+      </c>
+      <c r="N119">
+        <v>3</v>
+      </c>
+      <c r="O119" t="s">
+        <v>174</v>
+      </c>
+      <c r="P119" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q119">
+        <v>1</v>
+      </c>
+      <c r="R119">
+        <v>3</v>
+      </c>
+      <c r="S119">
+        <v>4</v>
+      </c>
+      <c r="T119">
+        <v>2.4</v>
+      </c>
+      <c r="U119">
+        <v>2.25</v>
+      </c>
+      <c r="V119">
+        <v>4.5</v>
+      </c>
+      <c r="W119">
+        <v>1.36</v>
+      </c>
+      <c r="X119">
+        <v>3</v>
+      </c>
+      <c r="Y119">
+        <v>2.63</v>
+      </c>
+      <c r="Z119">
+        <v>1.44</v>
+      </c>
+      <c r="AA119">
+        <v>7</v>
+      </c>
+      <c r="AB119">
+        <v>1.1</v>
+      </c>
+      <c r="AC119">
+        <v>2.01</v>
+      </c>
+      <c r="AD119">
+        <v>3.6</v>
+      </c>
+      <c r="AE119">
+        <v>3.35</v>
+      </c>
+      <c r="AF119">
+        <v>1.03</v>
+      </c>
+      <c r="AG119">
+        <v>13</v>
+      </c>
+      <c r="AH119">
+        <v>1.25</v>
+      </c>
+      <c r="AI119">
+        <v>3.7</v>
+      </c>
+      <c r="AJ119">
+        <v>1.8</v>
+      </c>
+      <c r="AK119">
+        <v>2</v>
+      </c>
+      <c r="AL119">
+        <v>1.73</v>
+      </c>
+      <c r="AM119">
+        <v>2</v>
+      </c>
+      <c r="AN119">
+        <v>1.27</v>
+      </c>
+      <c r="AO119">
+        <v>1.27</v>
+      </c>
+      <c r="AP119">
+        <v>1.86</v>
+      </c>
+      <c r="AQ119">
+        <v>2.57</v>
+      </c>
+      <c r="AR119">
+        <v>1.14</v>
+      </c>
+      <c r="AS119">
+        <v>2.25</v>
+      </c>
+      <c r="AT119">
+        <v>1.38</v>
+      </c>
+      <c r="AU119">
+        <v>1.68</v>
+      </c>
+      <c r="AV119">
+        <v>1.57</v>
+      </c>
+      <c r="AW119">
+        <v>3.25</v>
+      </c>
+      <c r="AX119">
+        <v>1.63</v>
+      </c>
+      <c r="AY119">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ119">
+        <v>2.64</v>
+      </c>
+      <c r="BA119">
+        <v>1.27</v>
+      </c>
+      <c r="BB119">
+        <v>1.5</v>
+      </c>
+      <c r="BC119">
+        <v>1.87</v>
+      </c>
+      <c r="BD119">
+        <v>2.42</v>
+      </c>
+      <c r="BE119">
+        <v>3.28</v>
+      </c>
+      <c r="BF119">
+        <v>2</v>
+      </c>
+      <c r="BG119">
+        <v>5</v>
+      </c>
+      <c r="BH119">
+        <v>4</v>
+      </c>
+      <c r="BI119">
+        <v>7</v>
+      </c>
+      <c r="BJ119">
         <v>6</v>
+      </c>
+      <c r="BK119">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:63">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>5231262</v>
+      </c>
+      <c r="C120" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" t="s">
+        <v>64</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45096.875</v>
+      </c>
+      <c r="F120">
+        <v>15</v>
+      </c>
+      <c r="G120" t="s">
+        <v>69</v>
+      </c>
+      <c r="H120" t="s">
+        <v>72</v>
+      </c>
+      <c r="I120">
+        <v>2</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>2</v>
+      </c>
+      <c r="L120">
+        <v>3</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>3</v>
+      </c>
+      <c r="O120" t="s">
+        <v>175</v>
+      </c>
+      <c r="P120" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q120">
+        <v>3</v>
+      </c>
+      <c r="R120">
+        <v>6</v>
+      </c>
+      <c r="S120">
+        <v>9</v>
+      </c>
+      <c r="T120">
+        <v>2.55</v>
+      </c>
+      <c r="U120">
+        <v>1.95</v>
+      </c>
+      <c r="V120">
+        <v>4.75</v>
+      </c>
+      <c r="W120">
+        <v>1.53</v>
+      </c>
+      <c r="X120">
+        <v>2.37</v>
+      </c>
+      <c r="Y120">
+        <v>3.3</v>
+      </c>
+      <c r="Z120">
+        <v>1.29</v>
+      </c>
+      <c r="AA120">
+        <v>9.25</v>
+      </c>
+      <c r="AB120">
+        <v>1.05</v>
+      </c>
+      <c r="AC120">
+        <v>1.74</v>
+      </c>
+      <c r="AD120">
+        <v>3.5</v>
+      </c>
+      <c r="AE120">
+        <v>4.7</v>
+      </c>
+      <c r="AF120">
+        <v>1.08</v>
+      </c>
+      <c r="AG120">
+        <v>7.25</v>
+      </c>
+      <c r="AH120">
+        <v>1.42</v>
+      </c>
+      <c r="AI120">
+        <v>2.6</v>
+      </c>
+      <c r="AJ120">
+        <v>2.3</v>
+      </c>
+      <c r="AK120">
+        <v>1.56</v>
+      </c>
+      <c r="AL120">
+        <v>2.1</v>
+      </c>
+      <c r="AM120">
+        <v>1.63</v>
+      </c>
+      <c r="AN120">
+        <v>1.17</v>
+      </c>
+      <c r="AO120">
+        <v>1.28</v>
+      </c>
+      <c r="AP120">
+        <v>1.85</v>
+      </c>
+      <c r="AQ120">
+        <v>2</v>
+      </c>
+      <c r="AR120">
+        <v>0.67</v>
+      </c>
+      <c r="AS120">
+        <v>2.13</v>
+      </c>
+      <c r="AT120">
+        <v>0.57</v>
+      </c>
+      <c r="AU120">
+        <v>1.35</v>
+      </c>
+      <c r="AV120">
+        <v>0.9</v>
+      </c>
+      <c r="AW120">
+        <v>2.25</v>
+      </c>
+      <c r="AX120">
+        <v>1.55</v>
+      </c>
+      <c r="AY120">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ120">
+        <v>2.89</v>
+      </c>
+      <c r="BA120">
+        <v>1.39</v>
+      </c>
+      <c r="BB120">
+        <v>1.8</v>
+      </c>
+      <c r="BC120">
+        <v>2.19</v>
+      </c>
+      <c r="BD120">
+        <v>2.98</v>
+      </c>
+      <c r="BE120">
+        <v>4.8</v>
+      </c>
+      <c r="BF120">
+        <v>7</v>
+      </c>
+      <c r="BG120">
+        <v>3</v>
+      </c>
+      <c r="BH120">
+        <v>5</v>
+      </c>
+      <c r="BI120">
+        <v>7</v>
+      </c>
+      <c r="BJ120">
+        <v>12</v>
+      </c>
+      <c r="BK120">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie A_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="236">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -542,6 +542,9 @@
   </si>
   <si>
     <t>['11', '20', '82']</t>
+  </si>
+  <si>
+    <t>['41', '70']</t>
   </si>
   <si>
     <t>['24']</t>
@@ -1080,7 +1083,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK120"/>
+  <dimension ref="A1:BK121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1515,7 +1518,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q3">
         <v>9</v>
@@ -1706,7 +1709,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1897,7 +1900,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -2088,7 +2091,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2279,7 +2282,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2366,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT7">
         <v>1.88</v>
@@ -2661,7 +2664,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2751,7 +2754,7 @@
         <v>2.5</v>
       </c>
       <c r="AT9">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2852,7 +2855,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3043,7 +3046,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3234,7 +3237,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -3998,7 +4001,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -4470,7 +4473,7 @@
         <v>1.75</v>
       </c>
       <c r="AT18">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU18">
         <v>1.52</v>
@@ -4571,7 +4574,7 @@
         <v>97</v>
       </c>
       <c r="P19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4762,7 +4765,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5144,7 +5147,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -5231,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT22">
         <v>1.38</v>
@@ -5335,7 +5338,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5908,7 +5911,7 @@
         <v>103</v>
       </c>
       <c r="P26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -6099,7 +6102,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6290,7 +6293,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6672,7 +6675,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -7245,7 +7248,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7818,7 +7821,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8391,7 +8394,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -8669,7 +8672,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT40">
         <v>0.63</v>
@@ -8773,7 +8776,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9155,7 +9158,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9346,7 +9349,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9537,7 +9540,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q45">
         <v>7</v>
@@ -10110,7 +10113,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q48">
         <v>6</v>
@@ -10301,7 +10304,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q49">
         <v>12</v>
@@ -10391,7 +10394,7 @@
         <v>1.86</v>
       </c>
       <c r="AT49">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU49">
         <v>1.13</v>
@@ -10492,7 +10495,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -11065,7 +11068,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11256,7 +11259,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11447,7 +11450,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q55">
         <v>8</v>
@@ -11829,7 +11832,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -11916,7 +11919,7 @@
         <v>0.33</v>
       </c>
       <c r="AS57">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT57">
         <v>0.43</v>
@@ -12107,7 +12110,7 @@
         <v>0</v>
       </c>
       <c r="AS58">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT58">
         <v>0.13</v>
@@ -12211,7 +12214,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12402,7 +12405,7 @@
         <v>133</v>
       </c>
       <c r="P60" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -12593,7 +12596,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -12784,7 +12787,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12975,7 +12978,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13256,7 +13259,7 @@
         <v>1.57</v>
       </c>
       <c r="AT64">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU64">
         <v>0.93</v>
@@ -13548,7 +13551,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -13930,7 +13933,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q68">
         <v>1</v>
@@ -14121,7 +14124,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q69">
         <v>1</v>
@@ -14694,7 +14697,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -15267,7 +15270,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15357,7 +15360,7 @@
         <v>2.14</v>
       </c>
       <c r="AT75">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU75">
         <v>1.5</v>
@@ -15545,7 +15548,7 @@
         <v>0.75</v>
       </c>
       <c r="AS76">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT76">
         <v>0.57</v>
@@ -15649,7 +15652,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -16222,7 +16225,7 @@
         <v>112</v>
       </c>
       <c r="P80" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16604,7 +16607,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -16885,7 +16888,7 @@
         <v>2.25</v>
       </c>
       <c r="AT83">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU83">
         <v>1.76</v>
@@ -17177,7 +17180,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -17368,7 +17371,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -17941,7 +17944,7 @@
         <v>151</v>
       </c>
       <c r="P89" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18132,7 +18135,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18896,7 +18899,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -18983,7 +18986,7 @@
         <v>0</v>
       </c>
       <c r="AS94">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT94">
         <v>0.43</v>
@@ -19087,7 +19090,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q95">
         <v>1</v>
@@ -19851,7 +19854,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20042,7 +20045,7 @@
         <v>160</v>
       </c>
       <c r="P100" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q100">
         <v>8</v>
@@ -20132,7 +20135,7 @@
         <v>1.71</v>
       </c>
       <c r="AT100">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU100">
         <v>1.36</v>
@@ -20233,7 +20236,7 @@
         <v>161</v>
       </c>
       <c r="P101" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20806,7 +20809,7 @@
         <v>163</v>
       </c>
       <c r="P104" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q104">
         <v>2</v>
@@ -21188,7 +21191,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -22143,7 +22146,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q111">
         <v>8</v>
@@ -22334,7 +22337,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q112">
         <v>5</v>
@@ -22716,7 +22719,7 @@
         <v>169</v>
       </c>
       <c r="P114" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -22907,7 +22910,7 @@
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -23098,7 +23101,7 @@
         <v>171</v>
       </c>
       <c r="P116" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q116">
         <v>9</v>
@@ -23289,7 +23292,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q117">
         <v>6</v>
@@ -23480,7 +23483,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -23671,7 +23674,7 @@
         <v>174</v>
       </c>
       <c r="P119" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q119">
         <v>1</v>
@@ -24004,6 +24007,197 @@
       </c>
       <c r="BK120">
         <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:63">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>5231263</v>
+      </c>
+      <c r="C121" t="s">
+        <v>63</v>
+      </c>
+      <c r="D121" t="s">
+        <v>64</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45100.875</v>
+      </c>
+      <c r="F121">
+        <v>15</v>
+      </c>
+      <c r="G121" t="s">
+        <v>70</v>
+      </c>
+      <c r="H121" t="s">
+        <v>79</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121">
+        <v>2</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>2</v>
+      </c>
+      <c r="O121" t="s">
+        <v>176</v>
+      </c>
+      <c r="P121" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q121">
+        <v>2</v>
+      </c>
+      <c r="R121">
+        <v>7</v>
+      </c>
+      <c r="S121">
+        <v>9</v>
+      </c>
+      <c r="T121">
+        <v>2.75</v>
+      </c>
+      <c r="U121">
+        <v>1.98</v>
+      </c>
+      <c r="V121">
+        <v>4</v>
+      </c>
+      <c r="W121">
+        <v>1.44</v>
+      </c>
+      <c r="X121">
+        <v>2.55</v>
+      </c>
+      <c r="Y121">
+        <v>3</v>
+      </c>
+      <c r="Z121">
+        <v>1.34</v>
+      </c>
+      <c r="AA121">
+        <v>8</v>
+      </c>
+      <c r="AB121">
+        <v>1.07</v>
+      </c>
+      <c r="AC121">
+        <v>1.95</v>
+      </c>
+      <c r="AD121">
+        <v>3.25</v>
+      </c>
+      <c r="AE121">
+        <v>3.35</v>
+      </c>
+      <c r="AF121">
+        <v>1.07</v>
+      </c>
+      <c r="AG121">
+        <v>7.75</v>
+      </c>
+      <c r="AH121">
+        <v>1.35</v>
+      </c>
+      <c r="AI121">
+        <v>2.9</v>
+      </c>
+      <c r="AJ121">
+        <v>1.95</v>
+      </c>
+      <c r="AK121">
+        <v>1.65</v>
+      </c>
+      <c r="AL121">
+        <v>1.85</v>
+      </c>
+      <c r="AM121">
+        <v>1.82</v>
+      </c>
+      <c r="AN121">
+        <v>1.18</v>
+      </c>
+      <c r="AO121">
+        <v>1.22</v>
+      </c>
+      <c r="AP121">
+        <v>1.9</v>
+      </c>
+      <c r="AQ121">
+        <v>2.14</v>
+      </c>
+      <c r="AR121">
+        <v>0.43</v>
+      </c>
+      <c r="AS121">
+        <v>2.25</v>
+      </c>
+      <c r="AT121">
+        <v>0.38</v>
+      </c>
+      <c r="AU121">
+        <v>1.62</v>
+      </c>
+      <c r="AV121">
+        <v>1.16</v>
+      </c>
+      <c r="AW121">
+        <v>2.78</v>
+      </c>
+      <c r="AX121">
+        <v>1.71</v>
+      </c>
+      <c r="AY121">
+        <v>8.6</v>
+      </c>
+      <c r="AZ121">
+        <v>2.47</v>
+      </c>
+      <c r="BA121">
+        <v>1.27</v>
+      </c>
+      <c r="BB121">
+        <v>1.51</v>
+      </c>
+      <c r="BC121">
+        <v>1.89</v>
+      </c>
+      <c r="BD121">
+        <v>2.45</v>
+      </c>
+      <c r="BE121">
+        <v>3.34</v>
+      </c>
+      <c r="BF121">
+        <v>8</v>
+      </c>
+      <c r="BG121">
+        <v>4</v>
+      </c>
+      <c r="BH121">
+        <v>6</v>
+      </c>
+      <c r="BI121">
+        <v>8</v>
+      </c>
+      <c r="BJ121">
+        <v>14</v>
+      </c>
+      <c r="BK121">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
